--- a/Bazy Danych 1/Labaratorium_project_2/Warsztat_04_Egzaminy Dyplomowe_20201021_RuslanLytvynov.xlsx
+++ b/Bazy Danych 1/Labaratorium_project_2/Warsztat_04_Egzaminy Dyplomowe_20201021_RuslanLytvynov.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\University_WIT\Bazy Danych 1\Labaratorium_project_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD14AF38-D287-4BD7-BA61-014B48EC237A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D00AE91-46C4-42C5-8B7E-CD49816D6B12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-144" yWindow="1836" windowWidth="22584" windowHeight="11520" tabRatio="793" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="540" windowWidth="23256" windowHeight="12528" tabRatio="793" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="External Data Model" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="169">
   <si>
     <t>`</t>
   </si>
@@ -735,6 +735,554 @@
       <t>(logical-&gt;relational)</t>
     </r>
   </si>
+  <si>
+    <t>rafalko</t>
+  </si>
+  <si>
+    <t>Kowalski Rafał</t>
+  </si>
+  <si>
+    <t>Konsultant</t>
+  </si>
+  <si>
+    <t>Data Dictionary</t>
+  </si>
+  <si>
+    <t>Business Name</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Database Column</t>
+  </si>
+  <si>
+    <t>Column Type</t>
+  </si>
+  <si>
+    <t>Examples</t>
+  </si>
+  <si>
+    <t>Business Description</t>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+  </si>
+  <si>
+    <t>VARCHAR(200)</t>
+  </si>
+  <si>
+    <t>tekst</t>
+  </si>
+  <si>
+    <t>lizcba</t>
+  </si>
+  <si>
+    <t>notatka</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>godzina</t>
+  </si>
+  <si>
+    <t>tekst krótki</t>
+  </si>
+  <si>
+    <t>dziesiętna(3,2)</t>
+  </si>
+  <si>
+    <t>{2, 2.5, 3, 3.5, 4, 4.5, 5}</t>
+  </si>
+  <si>
+    <t>numerAlbumu</t>
+  </si>
+  <si>
+    <t>nazwiskoImie</t>
+  </si>
+  <si>
+    <t>tematPracy</t>
+  </si>
+  <si>
+    <t>celPracy</t>
+  </si>
+  <si>
+    <t>zakresPracy</t>
+  </si>
+  <si>
+    <t>dateEgzaminu</t>
+  </si>
+  <si>
+    <t>godzinaPoczantkuEgzaminu</t>
+  </si>
+  <si>
+    <t>ocenaKoncowa</t>
+  </si>
+  <si>
+    <t>loginNauczuciela</t>
+  </si>
+  <si>
+    <t>tytułNauczuciela</t>
+  </si>
+  <si>
+    <t>wystawionaOcena</t>
+  </si>
+  <si>
+    <t>NUMERIC(8)</t>
+  </si>
+  <si>
+    <t>VARCHAR(500)</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>DECIMAL(4,3)</t>
+  </si>
+  <si>
+    <t>DECIMAL(2,1)</t>
+  </si>
+  <si>
+    <t>VARCHAR(1000)</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>Uwaga: tylko data bez czasu</t>
+  </si>
+  <si>
+    <t>Uwaga: Godzina minuty bez sekund</t>
+  </si>
+  <si>
+    <t>STUDEN</t>
+  </si>
+  <si>
+    <t>NAUCZYCIEL</t>
+  </si>
+  <si>
+    <t>PRACADYPL</t>
+  </si>
+  <si>
+    <t>ZADANIE</t>
+  </si>
+  <si>
+    <t>slaba encja</t>
+  </si>
+  <si>
+    <t>dataEgzaminu</t>
+  </si>
+  <si>
+    <t>ZWIĄZKI</t>
+  </si>
+  <si>
+    <t>MOŻE napisać WIELE prac dyplomowych</t>
+  </si>
+  <si>
+    <t>MUSI być napisana przez JEDNEGO studenta</t>
+  </si>
+  <si>
+    <t>MOŻE wykonać WIELE zadań (związanych z róznymi pracami dyplomowymi)</t>
+  </si>
+  <si>
+    <t>MUSI być przydzielone do JEDNEGO nauczyciela</t>
+  </si>
+  <si>
+    <t>MOŻE być związana z WIELOMA zadaniami</t>
+  </si>
+  <si>
+    <t>PRACADYP</t>
+  </si>
+  <si>
+    <t>MMUSI być przydzielone do JEDNEJ pracy dyplomowej</t>
+  </si>
+  <si>
+    <t>Relation Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORMALIZACJA </t>
+  </si>
+  <si>
+    <t>1NF</t>
+  </si>
+  <si>
+    <t>1. Klucze główne</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>2. Atrybuty atomowe</t>
+  </si>
+  <si>
+    <t>STUDENCI.nazwiskoImie -&gt; (nazwisko VARCHAR(100), imie VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>NAUCZYCIELIE.nazwiskoImie -&gt; (nazwisko VARCHAR(100), imie VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>3.Atrybuty jednowartościowe</t>
+  </si>
+  <si>
+    <t>2NF, 3NF, BCNF</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Każdy nauczyciel może wykonywac </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+      </rPr>
+      <t>TYLKO JEDNĄ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> funkcję, związaną z każdą pracą dyplomową studenta: Promotora, Recenzenta albo Przewodniczącego komisji egzaminacyjnej. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+      </rPr>
+      <t xml:space="preserve"> Jest spełniona przez Klucz główny relacji ZADANIA.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Egzaminy są </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t>indywidualne</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">. 
+Na każdy </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t>egzamin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> musi byc zarezerwowana </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t>sala</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> egzaminacyjna. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t>W jednym terminie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">, w sali może odbywać się tylko </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t>jeden egzamin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Rezerwacja Sali</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> polega na przypisaniu do egzaminu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t>daty i godziny początku</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> egzaminu. 
+Wpisana </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t>godzina początku</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> egzaminu określa zarezerwowanie Sali na </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t>stały okres czasu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">: 30 minut. FD1(dataEgzaminu,godzinaPoczontkuEgzaminu ) -&gt; (numerAlbumu, tematPracy, celPracy, zakrespracy ) .     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="8"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+      </rPr>
+      <t xml:space="preserve">Stworzyć ograniczenie unikalne </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+      </rPr>
+      <t>PRACEDYP_DG_IN(dataEgzaminu, godzinaPoczatkuEgzaminu)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ocena końcowa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> jest wyznaczana na podstawie wystawionych ocen wg </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t>skomplikowanego wzoru</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> - Nie jest prostą średnią z wystawionych ocen    J</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+      </rPr>
+      <t>est spełniona przez atrybut ocenaKoncowa w relacji STUDENT</t>
+    </r>
+  </si>
+  <si>
+    <t>FD1(dataEgzaminu,godzinaPoczontkuEgzaminu ) -&gt; (numerAlbumu, tematPracy, celPracy, zakrespracy )</t>
+  </si>
+  <si>
+    <t>3NF</t>
+  </si>
+  <si>
+    <t>BCNF</t>
+  </si>
+  <si>
+    <t>2NF</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">W przypadku uzyskania niedostatecznej oceny końcowej,  Student może podchodzić kolejny raz do egzaminu dyplomowego, ale za każdym razem praca musi posiadać </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t>inny temat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">.             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+      </rPr>
+      <t>FD2(numerAlbumu, tematPracy ) -&gt; (celPracy, zakrespracy, dataEgzaminu, godzinaPocatkuEgzamina )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+      </rPr>
+      <t>Jest spełniona prezez klucz główny PRACEDYP_PK.</t>
+    </r>
+  </si>
+  <si>
+    <t>FD2(numerAlbumu, tematPracy ) -&gt; (celPracy, zakrespracy, dataEgzaminu, godzinaPocatkuEgzamina )</t>
+  </si>
 </sst>
 </file>
 
@@ -744,7 +1292,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _z_ł_-;\-* #,##0.00\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0\ _z_ł_-;\-* #,##0.0\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -930,8 +1478,81 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Czcionka tekstu podstawowego"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Czcionka tekstu podstawowego"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Czcionka tekstu podstawowego"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Czcionka tekstu podstawowego"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="8"/>
+      <name val="Czcionka tekstu podstawowego"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Czcionka tekstu podstawowego"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Czcionka tekstu podstawowego"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Czcionka tekstu podstawowego"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -956,8 +1577,62 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1197,12 +1872,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1368,6 +2215,107 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1485,7 +2433,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1494,14 +2491,88 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1856,13 +2927,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>102397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>535783</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>140631</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1878,8 +2949,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1996440" y="18230377"/>
-          <a:ext cx="16301563" cy="1440314"/>
+          <a:off x="2993571" y="18390397"/>
+          <a:ext cx="21098898" cy="1431605"/>
           <a:chOff x="609599" y="19712517"/>
           <a:chExt cx="8914066" cy="1486346"/>
         </a:xfrm>
@@ -2169,6 +3240,1803 @@
         </xdr:style>
       </xdr:cxnSp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1360714</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>54516</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Freeform: Shape 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B07214C8-6A4D-4B2D-8C82-E7F81337CEC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6814457" y="30349371"/>
+          <a:ext cx="5442857" cy="468174"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 5442857 w 5442857"/>
+            <a:gd name="connsiteY0" fmla="*/ 544425 h 609827"/>
+            <a:gd name="connsiteX1" fmla="*/ 5431972 w 5442857"/>
+            <a:gd name="connsiteY1" fmla="*/ 489996 h 609827"/>
+            <a:gd name="connsiteX2" fmla="*/ 5410200 w 5442857"/>
+            <a:gd name="connsiteY2" fmla="*/ 468225 h 609827"/>
+            <a:gd name="connsiteX3" fmla="*/ 5290457 w 5442857"/>
+            <a:gd name="connsiteY3" fmla="*/ 348482 h 609827"/>
+            <a:gd name="connsiteX4" fmla="*/ 5116286 w 5442857"/>
+            <a:gd name="connsiteY4" fmla="*/ 239625 h 609827"/>
+            <a:gd name="connsiteX5" fmla="*/ 4974772 w 5442857"/>
+            <a:gd name="connsiteY5" fmla="*/ 206968 h 609827"/>
+            <a:gd name="connsiteX6" fmla="*/ 4800600 w 5442857"/>
+            <a:gd name="connsiteY6" fmla="*/ 163425 h 609827"/>
+            <a:gd name="connsiteX7" fmla="*/ 4680857 w 5442857"/>
+            <a:gd name="connsiteY7" fmla="*/ 130768 h 609827"/>
+            <a:gd name="connsiteX8" fmla="*/ 4408714 w 5442857"/>
+            <a:gd name="connsiteY8" fmla="*/ 108996 h 609827"/>
+            <a:gd name="connsiteX9" fmla="*/ 3418114 w 5442857"/>
+            <a:gd name="connsiteY9" fmla="*/ 87225 h 609827"/>
+            <a:gd name="connsiteX10" fmla="*/ 2960914 w 5442857"/>
+            <a:gd name="connsiteY10" fmla="*/ 54568 h 609827"/>
+            <a:gd name="connsiteX11" fmla="*/ 2906486 w 5442857"/>
+            <a:gd name="connsiteY11" fmla="*/ 43682 h 609827"/>
+            <a:gd name="connsiteX12" fmla="*/ 2558143 w 5442857"/>
+            <a:gd name="connsiteY12" fmla="*/ 21911 h 609827"/>
+            <a:gd name="connsiteX13" fmla="*/ 2525486 w 5442857"/>
+            <a:gd name="connsiteY13" fmla="*/ 11025 h 609827"/>
+            <a:gd name="connsiteX14" fmla="*/ 1426029 w 5442857"/>
+            <a:gd name="connsiteY14" fmla="*/ 11025 h 609827"/>
+            <a:gd name="connsiteX15" fmla="*/ 1295400 w 5442857"/>
+            <a:gd name="connsiteY15" fmla="*/ 43682 h 609827"/>
+            <a:gd name="connsiteX16" fmla="*/ 990600 w 5442857"/>
+            <a:gd name="connsiteY16" fmla="*/ 65453 h 609827"/>
+            <a:gd name="connsiteX17" fmla="*/ 925286 w 5442857"/>
+            <a:gd name="connsiteY17" fmla="*/ 76339 h 609827"/>
+            <a:gd name="connsiteX18" fmla="*/ 816429 w 5442857"/>
+            <a:gd name="connsiteY18" fmla="*/ 87225 h 609827"/>
+            <a:gd name="connsiteX19" fmla="*/ 740229 w 5442857"/>
+            <a:gd name="connsiteY19" fmla="*/ 98111 h 609827"/>
+            <a:gd name="connsiteX20" fmla="*/ 674914 w 5442857"/>
+            <a:gd name="connsiteY20" fmla="*/ 119882 h 609827"/>
+            <a:gd name="connsiteX21" fmla="*/ 620486 w 5442857"/>
+            <a:gd name="connsiteY21" fmla="*/ 130768 h 609827"/>
+            <a:gd name="connsiteX22" fmla="*/ 587829 w 5442857"/>
+            <a:gd name="connsiteY22" fmla="*/ 152539 h 609827"/>
+            <a:gd name="connsiteX23" fmla="*/ 544286 w 5442857"/>
+            <a:gd name="connsiteY23" fmla="*/ 163425 h 609827"/>
+            <a:gd name="connsiteX24" fmla="*/ 435429 w 5442857"/>
+            <a:gd name="connsiteY24" fmla="*/ 206968 h 609827"/>
+            <a:gd name="connsiteX25" fmla="*/ 381000 w 5442857"/>
+            <a:gd name="connsiteY25" fmla="*/ 250511 h 609827"/>
+            <a:gd name="connsiteX26" fmla="*/ 315686 w 5442857"/>
+            <a:gd name="connsiteY26" fmla="*/ 283168 h 609827"/>
+            <a:gd name="connsiteX27" fmla="*/ 261257 w 5442857"/>
+            <a:gd name="connsiteY27" fmla="*/ 337596 h 609827"/>
+            <a:gd name="connsiteX28" fmla="*/ 195943 w 5442857"/>
+            <a:gd name="connsiteY28" fmla="*/ 370253 h 609827"/>
+            <a:gd name="connsiteX29" fmla="*/ 163286 w 5442857"/>
+            <a:gd name="connsiteY29" fmla="*/ 381139 h 609827"/>
+            <a:gd name="connsiteX30" fmla="*/ 141514 w 5442857"/>
+            <a:gd name="connsiteY30" fmla="*/ 402911 h 609827"/>
+            <a:gd name="connsiteX31" fmla="*/ 108857 w 5442857"/>
+            <a:gd name="connsiteY31" fmla="*/ 424682 h 609827"/>
+            <a:gd name="connsiteX32" fmla="*/ 97972 w 5442857"/>
+            <a:gd name="connsiteY32" fmla="*/ 457339 h 609827"/>
+            <a:gd name="connsiteX33" fmla="*/ 76200 w 5442857"/>
+            <a:gd name="connsiteY33" fmla="*/ 479111 h 609827"/>
+            <a:gd name="connsiteX34" fmla="*/ 65314 w 5442857"/>
+            <a:gd name="connsiteY34" fmla="*/ 511768 h 609827"/>
+            <a:gd name="connsiteX35" fmla="*/ 21772 w 5442857"/>
+            <a:gd name="connsiteY35" fmla="*/ 577082 h 609827"/>
+            <a:gd name="connsiteX36" fmla="*/ 0 w 5442857"/>
+            <a:gd name="connsiteY36" fmla="*/ 609739 h 609827"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX31" y="connsiteY31"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX32" y="connsiteY32"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX33" y="connsiteY33"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX34" y="connsiteY34"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX35" y="connsiteY35"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX36" y="connsiteY36"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="5442857" h="609827">
+              <a:moveTo>
+                <a:pt x="5442857" y="544425"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="5439229" y="526282"/>
+                <a:pt x="5439260" y="507002"/>
+                <a:pt x="5431972" y="489996"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5427929" y="480563"/>
+                <a:pt x="5415893" y="476764"/>
+                <a:pt x="5410200" y="468225"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5341249" y="364800"/>
+                <a:pt x="5474353" y="492972"/>
+                <a:pt x="5290457" y="348482"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5227117" y="298715"/>
+                <a:pt x="5204391" y="272664"/>
+                <a:pt x="5116286" y="239625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5070957" y="222627"/>
+                <a:pt x="5021943" y="217854"/>
+                <a:pt x="4974772" y="206968"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4850875" y="145020"/>
+                <a:pt x="4972577" y="196183"/>
+                <a:pt x="4800600" y="163425"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4759959" y="155684"/>
+                <a:pt x="4721836" y="136460"/>
+                <a:pt x="4680857" y="130768"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4590718" y="118249"/>
+                <a:pt x="4499016" y="120283"/>
+                <a:pt x="4408714" y="108996"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4022761" y="60755"/>
+                <a:pt x="4350881" y="98463"/>
+                <a:pt x="3418114" y="87225"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3188761" y="36256"/>
+                <a:pt x="3405280" y="77955"/>
+                <a:pt x="2960914" y="54568"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2942438" y="53596"/>
+                <a:pt x="2924861" y="45844"/>
+                <a:pt x="2906486" y="43682"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2806431" y="31911"/>
+                <a:pt x="2648234" y="26415"/>
+                <a:pt x="2558143" y="21911"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2547257" y="18282"/>
+                <a:pt x="2536952" y="11475"/>
+                <a:pt x="2525486" y="11025"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2036892" y="-8136"/>
+                <a:pt x="1927367" y="1566"/>
+                <a:pt x="1426029" y="11025"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1382486" y="21911"/>
+                <a:pt x="1339320" y="34436"/>
+                <a:pt x="1295400" y="43682"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1206698" y="62356"/>
+                <a:pt x="1057465" y="62269"/>
+                <a:pt x="990600" y="65453"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="968829" y="69082"/>
+                <a:pt x="947187" y="73601"/>
+                <a:pt x="925286" y="76339"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="889101" y="80862"/>
+                <a:pt x="852646" y="82964"/>
+                <a:pt x="816429" y="87225"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="790947" y="90223"/>
+                <a:pt x="765629" y="94482"/>
+                <a:pt x="740229" y="98111"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="718457" y="105368"/>
+                <a:pt x="697055" y="113844"/>
+                <a:pt x="674914" y="119882"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="657064" y="124750"/>
+                <a:pt x="637810" y="124271"/>
+                <a:pt x="620486" y="130768"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="608236" y="135362"/>
+                <a:pt x="599854" y="147385"/>
+                <a:pt x="587829" y="152539"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="574078" y="158432"/>
+                <a:pt x="558177" y="157869"/>
+                <a:pt x="544286" y="163425"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="413126" y="215889"/>
+                <a:pt x="534833" y="182116"/>
+                <a:pt x="435429" y="206968"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="417286" y="221482"/>
+                <a:pt x="400703" y="238197"/>
+                <a:pt x="381000" y="250511"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="314192" y="292266"/>
+                <a:pt x="382677" y="224551"/>
+                <a:pt x="315686" y="283168"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="296376" y="300064"/>
+                <a:pt x="285598" y="329482"/>
+                <a:pt x="261257" y="337596"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="179173" y="364958"/>
+                <a:pt x="280352" y="328049"/>
+                <a:pt x="195943" y="370253"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="185680" y="375385"/>
+                <a:pt x="174172" y="377510"/>
+                <a:pt x="163286" y="381139"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="156029" y="388396"/>
+                <a:pt x="149528" y="396500"/>
+                <a:pt x="141514" y="402911"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="131298" y="411084"/>
+                <a:pt x="117030" y="414466"/>
+                <a:pt x="108857" y="424682"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="101689" y="433642"/>
+                <a:pt x="103875" y="447500"/>
+                <a:pt x="97972" y="457339"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="92692" y="466140"/>
+                <a:pt x="83457" y="471854"/>
+                <a:pt x="76200" y="479111"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="72571" y="489997"/>
+                <a:pt x="70887" y="501737"/>
+                <a:pt x="65314" y="511768"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="52607" y="534641"/>
+                <a:pt x="30047" y="552259"/>
+                <a:pt x="21772" y="577082"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="9738" y="613181"/>
+                <a:pt x="22361" y="609739"/>
+                <a:pt x="0" y="609739"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2275114</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>261257</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1534915</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Freeform: Shape 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5AC04D8-2C51-4E86-B6A9-93383612D00C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11571514" y="31568571"/>
+          <a:ext cx="2797658" cy="1709058"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2797658"/>
+            <a:gd name="connsiteY0" fmla="*/ 1121229 h 1709058"/>
+            <a:gd name="connsiteX1" fmla="*/ 43543 w 2797658"/>
+            <a:gd name="connsiteY1" fmla="*/ 1175658 h 1709058"/>
+            <a:gd name="connsiteX2" fmla="*/ 65315 w 2797658"/>
+            <a:gd name="connsiteY2" fmla="*/ 1197429 h 1709058"/>
+            <a:gd name="connsiteX3" fmla="*/ 195943 w 2797658"/>
+            <a:gd name="connsiteY3" fmla="*/ 1349829 h 1709058"/>
+            <a:gd name="connsiteX4" fmla="*/ 261257 w 2797658"/>
+            <a:gd name="connsiteY4" fmla="*/ 1393372 h 1709058"/>
+            <a:gd name="connsiteX5" fmla="*/ 424543 w 2797658"/>
+            <a:gd name="connsiteY5" fmla="*/ 1513115 h 1709058"/>
+            <a:gd name="connsiteX6" fmla="*/ 576943 w 2797658"/>
+            <a:gd name="connsiteY6" fmla="*/ 1621972 h 1709058"/>
+            <a:gd name="connsiteX7" fmla="*/ 664029 w 2797658"/>
+            <a:gd name="connsiteY7" fmla="*/ 1665515 h 1709058"/>
+            <a:gd name="connsiteX8" fmla="*/ 696686 w 2797658"/>
+            <a:gd name="connsiteY8" fmla="*/ 1687286 h 1709058"/>
+            <a:gd name="connsiteX9" fmla="*/ 816429 w 2797658"/>
+            <a:gd name="connsiteY9" fmla="*/ 1709058 h 1709058"/>
+            <a:gd name="connsiteX10" fmla="*/ 1175657 w 2797658"/>
+            <a:gd name="connsiteY10" fmla="*/ 1698172 h 1709058"/>
+            <a:gd name="connsiteX11" fmla="*/ 1338943 w 2797658"/>
+            <a:gd name="connsiteY11" fmla="*/ 1676400 h 1709058"/>
+            <a:gd name="connsiteX12" fmla="*/ 1415143 w 2797658"/>
+            <a:gd name="connsiteY12" fmla="*/ 1632858 h 1709058"/>
+            <a:gd name="connsiteX13" fmla="*/ 1632857 w 2797658"/>
+            <a:gd name="connsiteY13" fmla="*/ 1513115 h 1709058"/>
+            <a:gd name="connsiteX14" fmla="*/ 1698172 w 2797658"/>
+            <a:gd name="connsiteY14" fmla="*/ 1447800 h 1709058"/>
+            <a:gd name="connsiteX15" fmla="*/ 1741715 w 2797658"/>
+            <a:gd name="connsiteY15" fmla="*/ 1404258 h 1709058"/>
+            <a:gd name="connsiteX16" fmla="*/ 1839686 w 2797658"/>
+            <a:gd name="connsiteY16" fmla="*/ 1338943 h 1709058"/>
+            <a:gd name="connsiteX17" fmla="*/ 1926772 w 2797658"/>
+            <a:gd name="connsiteY17" fmla="*/ 1240972 h 1709058"/>
+            <a:gd name="connsiteX18" fmla="*/ 1948543 w 2797658"/>
+            <a:gd name="connsiteY18" fmla="*/ 1219200 h 1709058"/>
+            <a:gd name="connsiteX19" fmla="*/ 1981200 w 2797658"/>
+            <a:gd name="connsiteY19" fmla="*/ 1175658 h 1709058"/>
+            <a:gd name="connsiteX20" fmla="*/ 2002972 w 2797658"/>
+            <a:gd name="connsiteY20" fmla="*/ 1153886 h 1709058"/>
+            <a:gd name="connsiteX21" fmla="*/ 2068286 w 2797658"/>
+            <a:gd name="connsiteY21" fmla="*/ 1077686 h 1709058"/>
+            <a:gd name="connsiteX22" fmla="*/ 2166257 w 2797658"/>
+            <a:gd name="connsiteY22" fmla="*/ 936172 h 1709058"/>
+            <a:gd name="connsiteX23" fmla="*/ 2275115 w 2797658"/>
+            <a:gd name="connsiteY23" fmla="*/ 772886 h 1709058"/>
+            <a:gd name="connsiteX24" fmla="*/ 2405743 w 2797658"/>
+            <a:gd name="connsiteY24" fmla="*/ 609600 h 1709058"/>
+            <a:gd name="connsiteX25" fmla="*/ 2416629 w 2797658"/>
+            <a:gd name="connsiteY25" fmla="*/ 576943 h 1709058"/>
+            <a:gd name="connsiteX26" fmla="*/ 2481943 w 2797658"/>
+            <a:gd name="connsiteY26" fmla="*/ 489858 h 1709058"/>
+            <a:gd name="connsiteX27" fmla="*/ 2547257 w 2797658"/>
+            <a:gd name="connsiteY27" fmla="*/ 381000 h 1709058"/>
+            <a:gd name="connsiteX28" fmla="*/ 2601686 w 2797658"/>
+            <a:gd name="connsiteY28" fmla="*/ 261258 h 1709058"/>
+            <a:gd name="connsiteX29" fmla="*/ 2634343 w 2797658"/>
+            <a:gd name="connsiteY29" fmla="*/ 195943 h 1709058"/>
+            <a:gd name="connsiteX30" fmla="*/ 2677886 w 2797658"/>
+            <a:gd name="connsiteY30" fmla="*/ 152400 h 1709058"/>
+            <a:gd name="connsiteX31" fmla="*/ 2699657 w 2797658"/>
+            <a:gd name="connsiteY31" fmla="*/ 119743 h 1709058"/>
+            <a:gd name="connsiteX32" fmla="*/ 2732315 w 2797658"/>
+            <a:gd name="connsiteY32" fmla="*/ 87086 h 1709058"/>
+            <a:gd name="connsiteX33" fmla="*/ 2754086 w 2797658"/>
+            <a:gd name="connsiteY33" fmla="*/ 54429 h 1709058"/>
+            <a:gd name="connsiteX34" fmla="*/ 2786743 w 2797658"/>
+            <a:gd name="connsiteY34" fmla="*/ 43543 h 1709058"/>
+            <a:gd name="connsiteX35" fmla="*/ 2797629 w 2797658"/>
+            <a:gd name="connsiteY35" fmla="*/ 0 h 1709058"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX31" y="connsiteY31"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX32" y="connsiteY32"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX33" y="connsiteY33"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX34" y="connsiteY34"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX35" y="connsiteY35"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2797658" h="1709058">
+              <a:moveTo>
+                <a:pt x="0" y="1121229"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="14514" y="1139372"/>
+                <a:pt x="28422" y="1158017"/>
+                <a:pt x="43543" y="1175658"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="50222" y="1183450"/>
+                <a:pt x="59157" y="1189218"/>
+                <a:pt x="65315" y="1197429"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="134653" y="1289880"/>
+                <a:pt x="85610" y="1255257"/>
+                <a:pt x="195943" y="1349829"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="215810" y="1366858"/>
+                <a:pt x="242755" y="1374870"/>
+                <a:pt x="261257" y="1393372"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="361477" y="1493590"/>
+                <a:pt x="267514" y="1408428"/>
+                <a:pt x="424543" y="1513115"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="494623" y="1559835"/>
+                <a:pt x="508796" y="1583031"/>
+                <a:pt x="576943" y="1621972"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="605122" y="1638074"/>
+                <a:pt x="635537" y="1649974"/>
+                <a:pt x="664029" y="1665515"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="675514" y="1671780"/>
+                <a:pt x="684436" y="1682692"/>
+                <a:pt x="696686" y="1687286"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="708857" y="1691850"/>
+                <a:pt x="809092" y="1707835"/>
+                <a:pt x="816429" y="1709058"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1175657" y="1698172"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1231615" y="1695507"/>
+                <a:pt x="1284175" y="1685528"/>
+                <a:pt x="1338943" y="1676400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1364343" y="1661886"/>
+                <a:pt x="1389288" y="1646546"/>
+                <a:pt x="1415143" y="1632858"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1487759" y="1594414"/>
+                <a:pt x="1566493" y="1562888"/>
+                <a:pt x="1632857" y="1513115"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1657489" y="1494641"/>
+                <a:pt x="1676400" y="1469572"/>
+                <a:pt x="1698172" y="1447800"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1712686" y="1433286"/>
+                <a:pt x="1724636" y="1415644"/>
+                <a:pt x="1741715" y="1404258"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1774372" y="1382486"/>
+                <a:pt x="1810256" y="1364911"/>
+                <a:pt x="1839686" y="1338943"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1872449" y="1310034"/>
+                <a:pt x="1897380" y="1273303"/>
+                <a:pt x="1926772" y="1240972"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1933676" y="1233378"/>
+                <a:pt x="1941973" y="1227084"/>
+                <a:pt x="1948543" y="1219200"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1960158" y="1205262"/>
+                <a:pt x="1969585" y="1189595"/>
+                <a:pt x="1981200" y="1175658"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1987771" y="1167773"/>
+                <a:pt x="1996153" y="1161557"/>
+                <a:pt x="2002972" y="1153886"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2025197" y="1128882"/>
+                <a:pt x="2048214" y="1104449"/>
+                <a:pt x="2068286" y="1077686"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2102709" y="1031788"/>
+                <a:pt x="2136739" y="985368"/>
+                <a:pt x="2166257" y="936172"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2208140" y="866369"/>
+                <a:pt x="2215176" y="851754"/>
+                <a:pt x="2275115" y="772886"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2317291" y="717391"/>
+                <a:pt x="2405743" y="609600"/>
+                <a:pt x="2405743" y="609600"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2409372" y="598714"/>
+                <a:pt x="2410547" y="586673"/>
+                <a:pt x="2416629" y="576943"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2457992" y="510764"/>
+                <a:pt x="2453114" y="542711"/>
+                <a:pt x="2481943" y="489858"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2539702" y="383965"/>
+                <a:pt x="2499493" y="428766"/>
+                <a:pt x="2547257" y="381000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2566542" y="303863"/>
+                <a:pt x="2548172" y="360643"/>
+                <a:pt x="2601686" y="261258"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2613226" y="239826"/>
+                <a:pt x="2620384" y="215884"/>
+                <a:pt x="2634343" y="195943"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2646114" y="179127"/>
+                <a:pt x="2664528" y="167985"/>
+                <a:pt x="2677886" y="152400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2686400" y="142467"/>
+                <a:pt x="2691281" y="129793"/>
+                <a:pt x="2699657" y="119743"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2709513" y="107916"/>
+                <a:pt x="2722459" y="98913"/>
+                <a:pt x="2732315" y="87086"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2740691" y="77036"/>
+                <a:pt x="2743870" y="62602"/>
+                <a:pt x="2754086" y="54429"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2763046" y="47261"/>
+                <a:pt x="2775857" y="47172"/>
+                <a:pt x="2786743" y="43543"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2798777" y="7444"/>
+                <a:pt x="2797629" y="22361"/>
+                <a:pt x="2797629" y="0"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1045029</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>511629</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Freeform: Shape 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5380FDC-25FF-4603-ACAD-DCC99CA23152}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="31633886"/>
+          <a:ext cx="6760029" cy="1665514"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 6760029"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1665514"/>
+            <a:gd name="connsiteX1" fmla="*/ 43543 w 6760029"/>
+            <a:gd name="connsiteY1" fmla="*/ 54428 h 1665514"/>
+            <a:gd name="connsiteX2" fmla="*/ 65314 w 6760029"/>
+            <a:gd name="connsiteY2" fmla="*/ 76200 h 1665514"/>
+            <a:gd name="connsiteX3" fmla="*/ 87086 w 6760029"/>
+            <a:gd name="connsiteY3" fmla="*/ 108857 h 1665514"/>
+            <a:gd name="connsiteX4" fmla="*/ 152400 w 6760029"/>
+            <a:gd name="connsiteY4" fmla="*/ 174171 h 1665514"/>
+            <a:gd name="connsiteX5" fmla="*/ 206829 w 6760029"/>
+            <a:gd name="connsiteY5" fmla="*/ 239485 h 1665514"/>
+            <a:gd name="connsiteX6" fmla="*/ 228600 w 6760029"/>
+            <a:gd name="connsiteY6" fmla="*/ 261257 h 1665514"/>
+            <a:gd name="connsiteX7" fmla="*/ 283029 w 6760029"/>
+            <a:gd name="connsiteY7" fmla="*/ 326571 h 1665514"/>
+            <a:gd name="connsiteX8" fmla="*/ 370114 w 6760029"/>
+            <a:gd name="connsiteY8" fmla="*/ 402771 h 1665514"/>
+            <a:gd name="connsiteX9" fmla="*/ 587829 w 6760029"/>
+            <a:gd name="connsiteY9" fmla="*/ 566057 h 1665514"/>
+            <a:gd name="connsiteX10" fmla="*/ 729343 w 6760029"/>
+            <a:gd name="connsiteY10" fmla="*/ 631371 h 1665514"/>
+            <a:gd name="connsiteX11" fmla="*/ 859971 w 6760029"/>
+            <a:gd name="connsiteY11" fmla="*/ 707571 h 1665514"/>
+            <a:gd name="connsiteX12" fmla="*/ 892629 w 6760029"/>
+            <a:gd name="connsiteY12" fmla="*/ 718457 h 1665514"/>
+            <a:gd name="connsiteX13" fmla="*/ 1045029 w 6760029"/>
+            <a:gd name="connsiteY13" fmla="*/ 794657 h 1665514"/>
+            <a:gd name="connsiteX14" fmla="*/ 1295400 w 6760029"/>
+            <a:gd name="connsiteY14" fmla="*/ 881743 h 1665514"/>
+            <a:gd name="connsiteX15" fmla="*/ 1415143 w 6760029"/>
+            <a:gd name="connsiteY15" fmla="*/ 925285 h 1665514"/>
+            <a:gd name="connsiteX16" fmla="*/ 1567543 w 6760029"/>
+            <a:gd name="connsiteY16" fmla="*/ 968828 h 1665514"/>
+            <a:gd name="connsiteX17" fmla="*/ 1611086 w 6760029"/>
+            <a:gd name="connsiteY17" fmla="*/ 990600 h 1665514"/>
+            <a:gd name="connsiteX18" fmla="*/ 1774371 w 6760029"/>
+            <a:gd name="connsiteY18" fmla="*/ 1045028 h 1665514"/>
+            <a:gd name="connsiteX19" fmla="*/ 1970314 w 6760029"/>
+            <a:gd name="connsiteY19" fmla="*/ 1143000 h 1665514"/>
+            <a:gd name="connsiteX20" fmla="*/ 2155371 w 6760029"/>
+            <a:gd name="connsiteY20" fmla="*/ 1208314 h 1665514"/>
+            <a:gd name="connsiteX21" fmla="*/ 2209800 w 6760029"/>
+            <a:gd name="connsiteY21" fmla="*/ 1219200 h 1665514"/>
+            <a:gd name="connsiteX22" fmla="*/ 2373086 w 6760029"/>
+            <a:gd name="connsiteY22" fmla="*/ 1273628 h 1665514"/>
+            <a:gd name="connsiteX23" fmla="*/ 2623457 w 6760029"/>
+            <a:gd name="connsiteY23" fmla="*/ 1338943 h 1665514"/>
+            <a:gd name="connsiteX24" fmla="*/ 2656114 w 6760029"/>
+            <a:gd name="connsiteY24" fmla="*/ 1349828 h 1665514"/>
+            <a:gd name="connsiteX25" fmla="*/ 3102429 w 6760029"/>
+            <a:gd name="connsiteY25" fmla="*/ 1426028 h 1665514"/>
+            <a:gd name="connsiteX26" fmla="*/ 3320143 w 6760029"/>
+            <a:gd name="connsiteY26" fmla="*/ 1469571 h 1665514"/>
+            <a:gd name="connsiteX27" fmla="*/ 3537857 w 6760029"/>
+            <a:gd name="connsiteY27" fmla="*/ 1502228 h 1665514"/>
+            <a:gd name="connsiteX28" fmla="*/ 3766457 w 6760029"/>
+            <a:gd name="connsiteY28" fmla="*/ 1556657 h 1665514"/>
+            <a:gd name="connsiteX29" fmla="*/ 3810000 w 6760029"/>
+            <a:gd name="connsiteY29" fmla="*/ 1567543 h 1665514"/>
+            <a:gd name="connsiteX30" fmla="*/ 3973286 w 6760029"/>
+            <a:gd name="connsiteY30" fmla="*/ 1589314 h 1665514"/>
+            <a:gd name="connsiteX31" fmla="*/ 4016829 w 6760029"/>
+            <a:gd name="connsiteY31" fmla="*/ 1600200 h 1665514"/>
+            <a:gd name="connsiteX32" fmla="*/ 4180114 w 6760029"/>
+            <a:gd name="connsiteY32" fmla="*/ 1611085 h 1665514"/>
+            <a:gd name="connsiteX33" fmla="*/ 4386943 w 6760029"/>
+            <a:gd name="connsiteY33" fmla="*/ 1654628 h 1665514"/>
+            <a:gd name="connsiteX34" fmla="*/ 4517571 w 6760029"/>
+            <a:gd name="connsiteY34" fmla="*/ 1665514 h 1665514"/>
+            <a:gd name="connsiteX35" fmla="*/ 5029200 w 6760029"/>
+            <a:gd name="connsiteY35" fmla="*/ 1643743 h 1665514"/>
+            <a:gd name="connsiteX36" fmla="*/ 5170714 w 6760029"/>
+            <a:gd name="connsiteY36" fmla="*/ 1611085 h 1665514"/>
+            <a:gd name="connsiteX37" fmla="*/ 5246914 w 6760029"/>
+            <a:gd name="connsiteY37" fmla="*/ 1578428 h 1665514"/>
+            <a:gd name="connsiteX38" fmla="*/ 5301343 w 6760029"/>
+            <a:gd name="connsiteY38" fmla="*/ 1567543 h 1665514"/>
+            <a:gd name="connsiteX39" fmla="*/ 5486400 w 6760029"/>
+            <a:gd name="connsiteY39" fmla="*/ 1545771 h 1665514"/>
+            <a:gd name="connsiteX40" fmla="*/ 5562600 w 6760029"/>
+            <a:gd name="connsiteY40" fmla="*/ 1534885 h 1665514"/>
+            <a:gd name="connsiteX41" fmla="*/ 5649686 w 6760029"/>
+            <a:gd name="connsiteY41" fmla="*/ 1524000 h 1665514"/>
+            <a:gd name="connsiteX42" fmla="*/ 5769429 w 6760029"/>
+            <a:gd name="connsiteY42" fmla="*/ 1513114 h 1665514"/>
+            <a:gd name="connsiteX43" fmla="*/ 5802086 w 6760029"/>
+            <a:gd name="connsiteY43" fmla="*/ 1502228 h 1665514"/>
+            <a:gd name="connsiteX44" fmla="*/ 5834743 w 6760029"/>
+            <a:gd name="connsiteY44" fmla="*/ 1480457 h 1665514"/>
+            <a:gd name="connsiteX45" fmla="*/ 5889171 w 6760029"/>
+            <a:gd name="connsiteY45" fmla="*/ 1469571 h 1665514"/>
+            <a:gd name="connsiteX46" fmla="*/ 5965371 w 6760029"/>
+            <a:gd name="connsiteY46" fmla="*/ 1436914 h 1665514"/>
+            <a:gd name="connsiteX47" fmla="*/ 6030686 w 6760029"/>
+            <a:gd name="connsiteY47" fmla="*/ 1415143 h 1665514"/>
+            <a:gd name="connsiteX48" fmla="*/ 6063343 w 6760029"/>
+            <a:gd name="connsiteY48" fmla="*/ 1393371 h 1665514"/>
+            <a:gd name="connsiteX49" fmla="*/ 6183086 w 6760029"/>
+            <a:gd name="connsiteY49" fmla="*/ 1371600 h 1665514"/>
+            <a:gd name="connsiteX50" fmla="*/ 6281057 w 6760029"/>
+            <a:gd name="connsiteY50" fmla="*/ 1349828 h 1665514"/>
+            <a:gd name="connsiteX51" fmla="*/ 6313714 w 6760029"/>
+            <a:gd name="connsiteY51" fmla="*/ 1338943 h 1665514"/>
+            <a:gd name="connsiteX52" fmla="*/ 6335486 w 6760029"/>
+            <a:gd name="connsiteY52" fmla="*/ 1317171 h 1665514"/>
+            <a:gd name="connsiteX53" fmla="*/ 6444343 w 6760029"/>
+            <a:gd name="connsiteY53" fmla="*/ 1284514 h 1665514"/>
+            <a:gd name="connsiteX54" fmla="*/ 6477000 w 6760029"/>
+            <a:gd name="connsiteY54" fmla="*/ 1262743 h 1665514"/>
+            <a:gd name="connsiteX55" fmla="*/ 6542314 w 6760029"/>
+            <a:gd name="connsiteY55" fmla="*/ 1240971 h 1665514"/>
+            <a:gd name="connsiteX56" fmla="*/ 6640286 w 6760029"/>
+            <a:gd name="connsiteY56" fmla="*/ 1186543 h 1665514"/>
+            <a:gd name="connsiteX57" fmla="*/ 6662057 w 6760029"/>
+            <a:gd name="connsiteY57" fmla="*/ 1153885 h 1665514"/>
+            <a:gd name="connsiteX58" fmla="*/ 6716486 w 6760029"/>
+            <a:gd name="connsiteY58" fmla="*/ 1110343 h 1665514"/>
+            <a:gd name="connsiteX59" fmla="*/ 6738257 w 6760029"/>
+            <a:gd name="connsiteY59" fmla="*/ 1045028 h 1665514"/>
+            <a:gd name="connsiteX60" fmla="*/ 6749143 w 6760029"/>
+            <a:gd name="connsiteY60" fmla="*/ 1012371 h 1665514"/>
+            <a:gd name="connsiteX61" fmla="*/ 6760029 w 6760029"/>
+            <a:gd name="connsiteY61" fmla="*/ 1012371 h 1665514"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX31" y="connsiteY31"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX32" y="connsiteY32"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX33" y="connsiteY33"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX34" y="connsiteY34"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX35" y="connsiteY35"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX36" y="connsiteY36"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX37" y="connsiteY37"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX38" y="connsiteY38"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX39" y="connsiteY39"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX40" y="connsiteY40"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX41" y="connsiteY41"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX42" y="connsiteY42"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX43" y="connsiteY43"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX44" y="connsiteY44"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX45" y="connsiteY45"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX46" y="connsiteY46"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX47" y="connsiteY47"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX48" y="connsiteY48"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX49" y="connsiteY49"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX50" y="connsiteY50"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX51" y="connsiteY51"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX52" y="connsiteY52"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX53" y="connsiteY53"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX54" y="connsiteY54"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX55" y="connsiteY55"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX56" y="connsiteY56"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX57" y="connsiteY57"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX58" y="connsiteY58"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX59" y="connsiteY59"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX60" y="connsiteY60"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX61" y="connsiteY61"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="6760029" h="1665514">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="14514" y="18143"/>
+                <a:pt x="28423" y="36787"/>
+                <a:pt x="43543" y="54428"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="50222" y="62220"/>
+                <a:pt x="58903" y="68186"/>
+                <a:pt x="65314" y="76200"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="73487" y="86416"/>
+                <a:pt x="78394" y="99079"/>
+                <a:pt x="87086" y="108857"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="107541" y="131869"/>
+                <a:pt x="131595" y="151475"/>
+                <a:pt x="152400" y="174171"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="171550" y="195062"/>
+                <a:pt x="188167" y="218157"/>
+                <a:pt x="206829" y="239485"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="213587" y="247209"/>
+                <a:pt x="221842" y="253533"/>
+                <a:pt x="228600" y="261257"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="247262" y="282585"/>
+                <a:pt x="262990" y="306532"/>
+                <a:pt x="283029" y="326571"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="310304" y="353846"/>
+                <a:pt x="341444" y="376968"/>
+                <a:pt x="370114" y="402771"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="451343" y="475877"/>
+                <a:pt x="364043" y="462772"/>
+                <a:pt x="587829" y="566057"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="729343" y="631371"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="777667" y="679697"/>
+                <a:pt x="750365" y="656984"/>
+                <a:pt x="859971" y="707571"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="870390" y="712380"/>
+                <a:pt x="882246" y="713571"/>
+                <a:pt x="892629" y="718457"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="944019" y="742641"/>
+                <a:pt x="992394" y="773318"/>
+                <a:pt x="1045029" y="794657"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1126917" y="827855"/>
+                <a:pt x="1212665" y="850717"/>
+                <a:pt x="1295400" y="881743"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1311956" y="887951"/>
+                <a:pt x="1383155" y="915877"/>
+                <a:pt x="1415143" y="925285"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1465829" y="940193"/>
+                <a:pt x="1517421" y="952121"/>
+                <a:pt x="1567543" y="968828"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1582938" y="973960"/>
+                <a:pt x="1595859" y="984990"/>
+                <a:pt x="1611086" y="990600"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1664921" y="1010434"/>
+                <a:pt x="1719943" y="1026885"/>
+                <a:pt x="1774371" y="1045028"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1838815" y="1109472"/>
+                <a:pt x="1799935" y="1075881"/>
+                <a:pt x="1970314" y="1143000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2031177" y="1166976"/>
+                <a:pt x="2093035" y="1188480"/>
+                <a:pt x="2155371" y="1208314"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2173002" y="1213924"/>
+                <a:pt x="2192078" y="1213883"/>
+                <a:pt x="2209800" y="1219200"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2264753" y="1235686"/>
+                <a:pt x="2317976" y="1257675"/>
+                <a:pt x="2373086" y="1273628"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2455935" y="1297611"/>
+                <a:pt x="2541632" y="1311670"/>
+                <a:pt x="2623457" y="1338943"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2634343" y="1342571"/>
+                <a:pt x="2644925" y="1347285"/>
+                <a:pt x="2656114" y="1349828"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2998102" y="1427552"/>
+                <a:pt x="2728730" y="1363745"/>
+                <a:pt x="3102429" y="1426028"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3175431" y="1438195"/>
+                <a:pt x="3247572" y="1455057"/>
+                <a:pt x="3320143" y="1469571"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3431381" y="1525191"/>
+                <a:pt x="3291332" y="1462251"/>
+                <a:pt x="3537857" y="1502228"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3615177" y="1514766"/>
+                <a:pt x="3690290" y="1538377"/>
+                <a:pt x="3766457" y="1556657"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3781005" y="1560149"/>
+                <a:pt x="3795170" y="1565566"/>
+                <a:pt x="3810000" y="1567543"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3864429" y="1574800"/>
+                <a:pt x="3919048" y="1580750"/>
+                <a:pt x="3973286" y="1589314"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3988064" y="1591647"/>
+                <a:pt x="4001950" y="1598634"/>
+                <a:pt x="4016829" y="1600200"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4071078" y="1605910"/>
+                <a:pt x="4125686" y="1607457"/>
+                <a:pt x="4180114" y="1611085"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4260118" y="1664422"/>
+                <a:pt x="4205761" y="1635216"/>
+                <a:pt x="4386943" y="1654628"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4430388" y="1659283"/>
+                <a:pt x="4474028" y="1661885"/>
+                <a:pt x="4517571" y="1665514"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4759126" y="1659157"/>
+                <a:pt x="4842961" y="1668574"/>
+                <a:pt x="5029200" y="1643743"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5080984" y="1636839"/>
+                <a:pt x="5120672" y="1628957"/>
+                <a:pt x="5170714" y="1611085"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5196738" y="1601790"/>
+                <a:pt x="5220698" y="1587167"/>
+                <a:pt x="5246914" y="1578428"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5264467" y="1572577"/>
+                <a:pt x="5283139" y="1570853"/>
+                <a:pt x="5301343" y="1567543"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5406036" y="1548508"/>
+                <a:pt x="5344956" y="1561487"/>
+                <a:pt x="5486400" y="1545771"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5511901" y="1542937"/>
+                <a:pt x="5537167" y="1538276"/>
+                <a:pt x="5562600" y="1534885"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="5649686" y="1524000"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="5689545" y="1519804"/>
+                <a:pt x="5729515" y="1516743"/>
+                <a:pt x="5769429" y="1513114"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5780315" y="1509485"/>
+                <a:pt x="5791823" y="1507360"/>
+                <a:pt x="5802086" y="1502228"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5813788" y="1496377"/>
+                <a:pt x="5822493" y="1485051"/>
+                <a:pt x="5834743" y="1480457"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5852067" y="1473960"/>
+                <a:pt x="5871028" y="1473200"/>
+                <a:pt x="5889171" y="1469571"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5927603" y="1431140"/>
+                <a:pt x="5894430" y="1456261"/>
+                <a:pt x="5965371" y="1436914"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5987512" y="1430876"/>
+                <a:pt x="6030686" y="1415143"/>
+                <a:pt x="6030686" y="1415143"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6041572" y="1407886"/>
+                <a:pt x="6051641" y="1399222"/>
+                <a:pt x="6063343" y="1393371"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6097887" y="1376099"/>
+                <a:pt x="6150562" y="1376604"/>
+                <a:pt x="6183086" y="1371600"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6207404" y="1367859"/>
+                <a:pt x="6255774" y="1357051"/>
+                <a:pt x="6281057" y="1349828"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6292090" y="1346676"/>
+                <a:pt x="6302828" y="1342571"/>
+                <a:pt x="6313714" y="1338943"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6320971" y="1331686"/>
+                <a:pt x="6326306" y="1321761"/>
+                <a:pt x="6335486" y="1317171"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6361986" y="1303921"/>
+                <a:pt x="6413093" y="1292327"/>
+                <a:pt x="6444343" y="1284514"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6455229" y="1277257"/>
+                <a:pt x="6465045" y="1268056"/>
+                <a:pt x="6477000" y="1262743"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6497971" y="1253422"/>
+                <a:pt x="6523219" y="1253701"/>
+                <a:pt x="6542314" y="1240971"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6617176" y="1191063"/>
+                <a:pt x="6582805" y="1205702"/>
+                <a:pt x="6640286" y="1186543"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6647543" y="1175657"/>
+                <a:pt x="6653884" y="1164101"/>
+                <a:pt x="6662057" y="1153885"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6679782" y="1131728"/>
+                <a:pt x="6692241" y="1126506"/>
+                <a:pt x="6716486" y="1110343"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="6738257" y="1045028"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="6741886" y="1034142"/>
+                <a:pt x="6737668" y="1012371"/>
+                <a:pt x="6749143" y="1012371"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="6760029" y="1012371"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2081092</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>38600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E9962BD-4242-4695-8726-3E4119EB36C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="751114" y="37991143"/>
+          <a:ext cx="7772400" cy="3434943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>151068</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68BB1F27-7CF0-4D12-8634-72ED95EE1B94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9024257" y="37893171"/>
+          <a:ext cx="7772400" cy="3645383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>43542</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>577172</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0533443-AA9A-4197-9839-5876ED0970A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43542" y="42584914"/>
+          <a:ext cx="9477205" cy="3483429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2108336</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1329317</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>33616</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3D8794-AC62-4A0E-B59B-2257EC155A24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2783250" y="48191057"/>
+          <a:ext cx="9235838" cy="3429959"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1039091</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>9710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{208A5089-3FC7-4098-A94D-9021705C2342}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2978727" y="59075782"/>
+          <a:ext cx="8728364" cy="3972110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2999,28 +5867,28 @@
     </row>
     <row r="37" spans="1:21" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A37" s="8"/>
-      <c r="B37" s="84">
+      <c r="B37" s="123">
         <v>28374</v>
       </c>
-      <c r="C37" s="87" t="s">
+      <c r="C37" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="89" t="s">
+      <c r="D37" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="78" t="s">
+      <c r="E37" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="78" t="s">
+      <c r="F37" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="G37" s="87" t="s">
+      <c r="G37" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="91">
+      <c r="H37" s="130">
         <v>0.375</v>
       </c>
-      <c r="I37" s="92">
+      <c r="I37" s="131">
         <f>(N37*0.5 + N38*0.3 + N39*0.2)</f>
         <v>4.3499999999999996</v>
       </c>
@@ -3049,14 +5917,14 @@
     </row>
     <row r="38" spans="1:21" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A38" s="8"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
+      <c r="B38" s="124"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="118"/>
+      <c r="F38" s="118"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
       <c r="J38" s="26" t="s">
         <v>14</v>
       </c>
@@ -3082,14 +5950,14 @@
     </row>
     <row r="39" spans="1:21" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A39" s="8"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="88"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
+      <c r="B39" s="125"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="119"/>
+      <c r="G39" s="127"/>
+      <c r="H39" s="127"/>
+      <c r="I39" s="127"/>
       <c r="J39" s="26" t="s">
         <v>37</v>
       </c>
@@ -3115,28 +5983,28 @@
     </row>
     <row r="40" spans="1:21" s="4" customFormat="1" ht="18" thickTop="1">
       <c r="A40" s="8"/>
-      <c r="B40" s="93">
+      <c r="B40" s="132">
         <v>46573</v>
       </c>
-      <c r="C40" s="73" t="s">
+      <c r="C40" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="98" t="s">
+      <c r="D40" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="78" t="s">
+      <c r="E40" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="78" t="s">
+      <c r="F40" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="G40" s="73" t="s">
+      <c r="G40" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="101">
+      <c r="H40" s="140">
         <v>0.5625</v>
       </c>
-      <c r="I40" s="77">
+      <c r="I40" s="116">
         <f>(N40*0.5 + N41*0.3 + N42*0.2)</f>
         <v>3.5500000000000003</v>
       </c>
@@ -3165,14 +6033,14 @@
     </row>
     <row r="41" spans="1:21" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A41" s="8"/>
-      <c r="B41" s="94"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="135"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
       <c r="J41" s="26" t="s">
         <v>15</v>
       </c>
@@ -3198,14 +6066,14 @@
     </row>
     <row r="42" spans="1:21" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A42" s="8"/>
-      <c r="B42" s="95"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="136"/>
+      <c r="D42" s="139"/>
+      <c r="E42" s="119"/>
+      <c r="F42" s="119"/>
+      <c r="G42" s="127"/>
+      <c r="H42" s="127"/>
+      <c r="I42" s="127"/>
       <c r="J42" s="32" t="s">
         <v>26</v>
       </c>
@@ -3231,28 +6099,28 @@
     </row>
     <row r="43" spans="1:21" s="4" customFormat="1" ht="21.75" customHeight="1" thickTop="1">
       <c r="A43" s="8"/>
-      <c r="B43" s="93">
+      <c r="B43" s="132">
         <v>39463</v>
       </c>
-      <c r="C43" s="73" t="s">
+      <c r="C43" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="70" t="s">
+      <c r="D43" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="81" t="s">
+      <c r="E43" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="F43" s="81" t="s">
+      <c r="F43" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="G43" s="73" t="s">
+      <c r="G43" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="H43" s="76">
+      <c r="H43" s="115">
         <v>0.70833333333333337</v>
       </c>
-      <c r="I43" s="77">
+      <c r="I43" s="116">
         <f>(N43*0.5 + N44*0.3 + N45*0.2)</f>
         <v>4.45</v>
       </c>
@@ -3281,14 +6149,14 @@
     </row>
     <row r="44" spans="1:21" s="4" customFormat="1" ht="21.75" customHeight="1">
       <c r="A44" s="8"/>
-      <c r="B44" s="94"/>
-      <c r="C44" s="96"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
+      <c r="B44" s="133"/>
+      <c r="C44" s="135"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="121"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="113"/>
+      <c r="I44" s="113"/>
       <c r="J44" s="26" t="s">
         <v>37</v>
       </c>
@@ -3314,14 +6182,14 @@
     </row>
     <row r="45" spans="1:21" s="4" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A45" s="8"/>
-      <c r="B45" s="102"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="75"/>
+      <c r="B45" s="141"/>
+      <c r="C45" s="142"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="122"/>
+      <c r="F45" s="122"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
       <c r="J45" s="28" t="s">
         <v>26</v>
       </c>
@@ -3874,21 +6742,21 @@
     </row>
     <row r="58" spans="1:20" s="4" customFormat="1" ht="44.25" customHeight="1">
       <c r="A58" s="8"/>
-      <c r="B58" s="104" t="s">
+      <c r="B58" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="105"/>
-      <c r="D58" s="105"/>
-      <c r="E58" s="105"/>
-      <c r="F58" s="105"/>
-      <c r="G58" s="105"/>
-      <c r="H58" s="105"/>
-      <c r="I58" s="105"/>
-      <c r="J58" s="105"/>
-      <c r="K58" s="105"/>
-      <c r="L58" s="105"/>
-      <c r="M58" s="105"/>
-      <c r="N58" s="105"/>
+      <c r="C58" s="144"/>
+      <c r="D58" s="144"/>
+      <c r="E58" s="144"/>
+      <c r="F58" s="144"/>
+      <c r="G58" s="144"/>
+      <c r="H58" s="144"/>
+      <c r="I58" s="144"/>
+      <c r="J58" s="144"/>
+      <c r="K58" s="144"/>
+      <c r="L58" s="144"/>
+      <c r="M58" s="144"/>
+      <c r="N58" s="144"/>
       <c r="O58" s="8"/>
       <c r="P58" s="8"/>
       <c r="Q58" s="8"/>
@@ -3914,83 +6782,83 @@
       <c r="B71" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="67" t="s">
+      <c r="C71" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="68"/>
-      <c r="E71" s="68"/>
-      <c r="F71" s="68"/>
-      <c r="G71" s="68"/>
-      <c r="H71" s="68"/>
-      <c r="I71" s="68"/>
-      <c r="J71" s="68"/>
+      <c r="D71" s="107"/>
+      <c r="E71" s="107"/>
+      <c r="F71" s="107"/>
+      <c r="G71" s="107"/>
+      <c r="H71" s="107"/>
+      <c r="I71" s="107"/>
+      <c r="J71" s="107"/>
     </row>
     <row r="72" spans="2:10" ht="103.5" customHeight="1">
       <c r="B72" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="69" t="s">
+      <c r="C72" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="D72" s="68"/>
-      <c r="E72" s="68"/>
-      <c r="F72" s="68"/>
-      <c r="G72" s="68"/>
-      <c r="H72" s="68"/>
-      <c r="I72" s="68"/>
-      <c r="J72" s="68"/>
+      <c r="D72" s="107"/>
+      <c r="E72" s="107"/>
+      <c r="F72" s="107"/>
+      <c r="G72" s="107"/>
+      <c r="H72" s="107"/>
+      <c r="I72" s="107"/>
+      <c r="J72" s="107"/>
     </row>
     <row r="73" spans="2:10" ht="48.75" customHeight="1">
       <c r="B73" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="67" t="s">
+      <c r="C73" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="D73" s="68"/>
-      <c r="E73" s="68"/>
-      <c r="F73" s="68"/>
-      <c r="G73" s="68"/>
-      <c r="H73" s="68"/>
-      <c r="I73" s="68"/>
-      <c r="J73" s="68"/>
+      <c r="D73" s="107"/>
+      <c r="E73" s="107"/>
+      <c r="F73" s="107"/>
+      <c r="G73" s="107"/>
+      <c r="H73" s="107"/>
+      <c r="I73" s="107"/>
+      <c r="J73" s="107"/>
     </row>
     <row r="74" spans="2:10" ht="45.75" customHeight="1">
       <c r="B74" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C74" s="69" t="s">
+      <c r="C74" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="D74" s="68"/>
-      <c r="E74" s="68"/>
-      <c r="F74" s="68"/>
-      <c r="G74" s="68"/>
-      <c r="H74" s="68"/>
-      <c r="I74" s="68"/>
-      <c r="J74" s="68"/>
+      <c r="D74" s="107"/>
+      <c r="E74" s="107"/>
+      <c r="F74" s="107"/>
+      <c r="G74" s="107"/>
+      <c r="H74" s="107"/>
+      <c r="I74" s="107"/>
+      <c r="J74" s="107"/>
     </row>
     <row r="75" spans="2:10" ht="30.75" customHeight="1">
       <c r="B75" s="18"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="68"/>
-      <c r="E75" s="68"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="68"/>
-      <c r="H75" s="68"/>
-      <c r="I75" s="68"/>
-      <c r="J75" s="68"/>
+      <c r="C75" s="108"/>
+      <c r="D75" s="107"/>
+      <c r="E75" s="107"/>
+      <c r="F75" s="107"/>
+      <c r="G75" s="107"/>
+      <c r="H75" s="107"/>
+      <c r="I75" s="107"/>
+      <c r="J75" s="107"/>
     </row>
     <row r="76" spans="2:10" ht="44.25" customHeight="1">
       <c r="B76" s="18"/>
-      <c r="C76" s="69"/>
-      <c r="D76" s="68"/>
-      <c r="E76" s="68"/>
-      <c r="F76" s="68"/>
-      <c r="G76" s="68"/>
-      <c r="H76" s="68"/>
-      <c r="I76" s="68"/>
-      <c r="J76" s="68"/>
+      <c r="C76" s="108"/>
+      <c r="D76" s="107"/>
+      <c r="E76" s="107"/>
+      <c r="F76" s="107"/>
+      <c r="G76" s="107"/>
+      <c r="H76" s="107"/>
+      <c r="I76" s="107"/>
+      <c r="J76" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -4034,22 +6902,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U74"/>
+  <dimension ref="A1:U210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46:I53"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147:XFD147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="3" max="3" width="20.69921875" customWidth="1"/>
+    <col min="2" max="2" width="30.3984375" customWidth="1"/>
+    <col min="3" max="3" width="22.59765625" customWidth="1"/>
     <col min="4" max="4" width="22.69921875" customWidth="1"/>
-    <col min="5" max="5" width="15.69921875" customWidth="1"/>
-    <col min="6" max="6" width="17.59765625" customWidth="1"/>
-    <col min="7" max="7" width="12.8984375" customWidth="1"/>
+    <col min="5" max="5" width="32.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
     <col min="8" max="8" width="12.3984375" customWidth="1"/>
-    <col min="9" max="9" width="14.3984375" customWidth="1"/>
+    <col min="9" max="9" width="31.8984375" customWidth="1"/>
     <col min="10" max="10" width="14.69921875" customWidth="1"/>
     <col min="11" max="11" width="14.3984375" customWidth="1"/>
     <col min="12" max="12" width="24.59765625" customWidth="1"/>
@@ -4528,44 +7396,44 @@
     </row>
     <row r="34" spans="1:21" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A34" s="8"/>
-      <c r="B34" s="84">
+      <c r="B34" s="165">
         <v>28374</v>
       </c>
-      <c r="C34" s="87" t="s">
+      <c r="C34" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="89" t="s">
+      <c r="D34" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="78" t="s">
+      <c r="E34" s="171" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="78" t="s">
+      <c r="F34" s="171" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="87" t="s">
+      <c r="G34" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="91">
+      <c r="H34" s="156">
         <v>0.375</v>
       </c>
-      <c r="I34" s="106">
-        <f>(N34*0.5 + N35*0.3 + N36*0.2)</f>
+      <c r="I34" s="159">
+        <f>(N34*0.5 + N36*0.3 + N37*0.2)</f>
         <v>4.3499999999999996</v>
       </c>
-      <c r="J34" s="56" t="s">
+      <c r="J34" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="K34" s="56" t="s">
+      <c r="K34" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="L34" s="56" t="s">
+      <c r="L34" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="M34" s="56" t="s">
+      <c r="M34" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="N34" s="27">
+      <c r="N34" s="69">
         <v>5</v>
       </c>
       <c r="O34" s="9"/>
@@ -4578,27 +7446,27 @@
     </row>
     <row r="35" spans="1:21" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A35" s="8"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="K35" s="56" t="s">
+      <c r="B35" s="165"/>
+      <c r="C35" s="167"/>
+      <c r="D35" s="168"/>
+      <c r="E35" s="171"/>
+      <c r="F35" s="171"/>
+      <c r="G35" s="167"/>
+      <c r="H35" s="156"/>
+      <c r="I35" s="159"/>
+      <c r="J35" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="K35" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="L35" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="M35" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="N35" s="27">
+      <c r="L35" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="M35" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="N35" s="69">
         <v>3.5</v>
       </c>
       <c r="O35" s="9"/>
@@ -4609,30 +7477,30 @@
       <c r="T35" s="8"/>
       <c r="U35" s="8"/>
     </row>
-    <row r="36" spans="1:21" s="4" customFormat="1" ht="18" thickBot="1">
+    <row r="36" spans="1:21" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A36" s="8"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="108"/>
-      <c r="J36" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="K36" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="L36" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="M36" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="N36" s="27">
-        <v>4</v>
+      <c r="B36" s="165"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="169"/>
+      <c r="E36" s="172"/>
+      <c r="F36" s="172"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="157"/>
+      <c r="I36" s="160"/>
+      <c r="J36" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="M36" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="69">
+        <v>3.5</v>
       </c>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
@@ -4642,47 +7510,30 @@
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
     </row>
-    <row r="37" spans="1:21" s="4" customFormat="1" ht="18" thickTop="1">
+    <row r="37" spans="1:21" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A37" s="8"/>
-      <c r="B37" s="93">
-        <v>46573</v>
-      </c>
-      <c r="C37" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="98" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="101">
-        <v>0.5625</v>
-      </c>
-      <c r="I37" s="109">
-        <f>(N37*0.5 + N38*0.3 + N39*0.2)</f>
-        <v>3.5500000000000003</v>
-      </c>
-      <c r="J37" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="K37" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="L37" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="M37" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="N37" s="31">
-        <v>3.5</v>
+      <c r="B37" s="166"/>
+      <c r="C37" s="158"/>
+      <c r="D37" s="170"/>
+      <c r="E37" s="173"/>
+      <c r="F37" s="173"/>
+      <c r="G37" s="158"/>
+      <c r="H37" s="158"/>
+      <c r="I37" s="161"/>
+      <c r="J37" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="K37" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="L37" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" s="69">
+        <v>4</v>
       </c>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
@@ -4692,30 +7543,47 @@
       <c r="T37" s="8"/>
       <c r="U37" s="8"/>
     </row>
-    <row r="38" spans="1:21" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="38" spans="1:21" s="4" customFormat="1" ht="18" thickTop="1">
       <c r="A38" s="8"/>
-      <c r="B38" s="94"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="K38" s="56" t="s">
+      <c r="B38" s="132">
+        <v>46573</v>
+      </c>
+      <c r="C38" s="112" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="137" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="117" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="117" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="140">
+        <v>0.5625</v>
+      </c>
+      <c r="I38" s="162">
+        <f>(N38*0.5 + N39*0.3 + N40*0.2)</f>
+        <v>3.5500000000000003</v>
+      </c>
+      <c r="J38" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="K38" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="L38" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="M38" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="N38" s="27">
-        <v>4</v>
+      <c r="L38" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="M38" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="N38" s="31">
+        <v>3.5</v>
       </c>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
@@ -4725,30 +7593,30 @@
       <c r="T38" s="8"/>
       <c r="U38" s="8"/>
     </row>
-    <row r="39" spans="1:21" s="4" customFormat="1" ht="18" thickBot="1">
+    <row r="39" spans="1:21" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A39" s="8"/>
-      <c r="B39" s="95"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="108"/>
-      <c r="J39" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="K39" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="L39" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="M39" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="N39" s="33">
-        <v>3</v>
+      <c r="B39" s="133"/>
+      <c r="C39" s="135"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="118"/>
+      <c r="F39" s="118"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="163"/>
+      <c r="J39" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="L39" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="M39" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" s="27">
+        <v>4</v>
       </c>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
@@ -4758,47 +7626,30 @@
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
     </row>
-    <row r="40" spans="1:21" s="4" customFormat="1" ht="21.75" customHeight="1" thickTop="1">
+    <row r="40" spans="1:21" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A40" s="8"/>
-      <c r="B40" s="93">
-        <v>39463</v>
-      </c>
-      <c r="C40" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="F40" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="H40" s="76">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="I40" s="109">
-        <f>(N40*0.5 + N41*0.3 + N42*0.2)</f>
-        <v>4.45</v>
-      </c>
-      <c r="J40" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="K40" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="L40" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="M40" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="N40" s="27">
-        <v>5</v>
+      <c r="B40" s="134"/>
+      <c r="C40" s="136"/>
+      <c r="D40" s="139"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="119"/>
+      <c r="G40" s="127"/>
+      <c r="H40" s="127"/>
+      <c r="I40" s="164"/>
+      <c r="J40" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" s="33">
+        <v>3</v>
       </c>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
@@ -4808,30 +7659,47 @@
       <c r="T40" s="8"/>
       <c r="U40" s="8"/>
     </row>
-    <row r="41" spans="1:21" s="4" customFormat="1" ht="21.75" customHeight="1">
+    <row r="41" spans="1:21" s="4" customFormat="1" ht="21.75" customHeight="1" thickTop="1">
       <c r="A41" s="8"/>
-      <c r="B41" s="94"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="107"/>
+      <c r="B41" s="132">
+        <v>39463</v>
+      </c>
+      <c r="C41" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="109" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" s="115">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I41" s="162">
+        <f>(N41*0.5 + N42*0.3 + N43*0.2)</f>
+        <v>4.45</v>
+      </c>
       <c r="J41" s="56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K41" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="L41" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="M41" s="34" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="L41" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="M41" s="56" t="s">
+        <v>33</v>
       </c>
       <c r="N41" s="27">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
@@ -4841,30 +7709,30 @@
       <c r="T41" s="8"/>
       <c r="U41" s="8"/>
     </row>
-    <row r="42" spans="1:21" s="4" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+    <row r="42" spans="1:21" s="4" customFormat="1" ht="21.75" customHeight="1">
       <c r="A42" s="8"/>
-      <c r="B42" s="102"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="110"/>
-      <c r="J42" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="K42" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="L42" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M42" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="N42" s="29">
-        <v>4.5</v>
+      <c r="B42" s="133"/>
+      <c r="C42" s="135"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="121"/>
+      <c r="F42" s="121"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="163"/>
+      <c r="J42" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="K42" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42" s="27">
+        <v>3.5</v>
       </c>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
@@ -4874,65 +7742,54 @@
       <c r="T42" s="8"/>
       <c r="U42" s="8"/>
     </row>
-    <row r="43" spans="1:21" s="4" customFormat="1" ht="44.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="43" spans="1:21" s="4" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A43" s="8"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
+      <c r="B43" s="141"/>
+      <c r="C43" s="142"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="174"/>
+      <c r="J43" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="K43" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" s="29">
+        <v>4.5</v>
+      </c>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
-      <c r="Q43" s="8"/>
+      <c r="Q43" s="9"/>
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
-    </row>
-    <row r="44" spans="1:21" s="4" customFormat="1" ht="57.75" customHeight="1" thickTop="1">
+      <c r="U43" s="8"/>
+    </row>
+    <row r="44" spans="1:21" s="4" customFormat="1" ht="44.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A44" s="8"/>
-      <c r="B44" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H44" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I44" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="J44" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K44" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="L44" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="M44" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="N44" s="25" t="s">
-        <v>49</v>
-      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
       <c r="Q44" s="8"/>
@@ -4940,47 +7797,42 @@
       <c r="S44" s="8"/>
       <c r="T44" s="8"/>
     </row>
-    <row r="45" spans="1:21" s="4" customFormat="1" ht="30">
+    <row r="45" spans="1:21" s="4" customFormat="1" ht="57.75" customHeight="1" thickTop="1">
       <c r="A45" s="8"/>
-      <c r="B45" s="19">
-        <v>28374</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="21">
-        <v>0.375</v>
-      </c>
-      <c r="I45" s="111">
-        <f t="shared" ref="I45:I51" si="0">(N45*0.5 + N46*0.3 + N47*0.2)</f>
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="J45" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="K45" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="L45" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="M45" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="N45" s="37">
-        <v>5</v>
+      <c r="B45" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J45" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K45" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="L45" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="N45" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
@@ -4989,7 +7841,7 @@
       <c r="S45" s="8"/>
       <c r="T45" s="8"/>
     </row>
-    <row r="46" spans="1:21" s="4" customFormat="1" ht="42.75" customHeight="1">
+    <row r="46" spans="1:21" s="4" customFormat="1" ht="30">
       <c r="A46" s="8"/>
       <c r="B46" s="19">
         <v>28374</v>
@@ -5012,24 +7864,24 @@
       <c r="H46" s="21">
         <v>0.375</v>
       </c>
-      <c r="I46" s="111">
-        <f t="shared" si="0"/>
-        <v>3.6500000000000004</v>
+      <c r="I46" s="67">
+        <f t="shared" ref="I46:I52" si="0">(N46*0.5 + N47*0.3 + N48*0.2)</f>
+        <v>4.3499999999999996</v>
       </c>
       <c r="J46" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K46" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L46" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="M46" s="43" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="M46" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="N46" s="37">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
@@ -5038,7 +7890,7 @@
       <c r="S46" s="8"/>
       <c r="T46" s="8"/>
     </row>
-    <row r="47" spans="1:21" s="4" customFormat="1" ht="30.75" customHeight="1">
+    <row r="47" spans="1:21" s="4" customFormat="1" ht="42.75" customHeight="1">
       <c r="A47" s="8"/>
       <c r="B47" s="19">
         <v>28374</v>
@@ -5061,24 +7913,24 @@
       <c r="H47" s="21">
         <v>0.375</v>
       </c>
-      <c r="I47" s="111">
+      <c r="I47" s="67">
         <f t="shared" si="0"/>
-        <v>3.8499999999999996</v>
+        <v>3.6500000000000004</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="K47" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L47" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M47" s="43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N47" s="37">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
@@ -5087,16 +7939,16 @@
       <c r="S47" s="8"/>
       <c r="T47" s="8"/>
     </row>
-    <row r="48" spans="1:21" s="4" customFormat="1" ht="32.25" customHeight="1">
+    <row r="48" spans="1:21" s="4" customFormat="1" ht="30.75" customHeight="1">
       <c r="A48" s="8"/>
       <c r="B48" s="19">
-        <v>46573</v>
+        <v>28374</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="46" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="D48" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="E48" s="53" t="s">
         <v>52</v>
@@ -5107,27 +7959,27 @@
       <c r="G48" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H48" s="44">
-        <v>0.5625</v>
-      </c>
-      <c r="I48" s="111">
+      <c r="H48" s="21">
+        <v>0.375</v>
+      </c>
+      <c r="I48" s="67">
         <f t="shared" si="0"/>
-        <v>3.5500000000000003</v>
+        <v>3.8499999999999996</v>
       </c>
       <c r="J48" s="20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K48" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="L48" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="M48" s="20" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="L48" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M48" s="43" t="s">
+        <v>24</v>
       </c>
       <c r="N48" s="37">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
@@ -5136,7 +7988,7 @@
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
     </row>
-    <row r="49" spans="1:20" s="4" customFormat="1" ht="34.5" customHeight="1">
+    <row r="49" spans="1:20" s="4" customFormat="1" ht="32.25" customHeight="1">
       <c r="A49" s="8"/>
       <c r="B49" s="19">
         <v>46573</v>
@@ -5159,24 +8011,24 @@
       <c r="H49" s="44">
         <v>0.5625</v>
       </c>
-      <c r="I49" s="111">
+      <c r="I49" s="67">
         <f t="shared" si="0"/>
-        <v>3.9</v>
+        <v>3.5500000000000003</v>
       </c>
       <c r="J49" s="20" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="K49" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="L49" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="M49" s="43" t="s">
-        <v>23</v>
+      <c r="L49" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="M49" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="N49" s="37">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
@@ -5185,7 +8037,7 @@
       <c r="S49" s="8"/>
       <c r="T49" s="8"/>
     </row>
-    <row r="50" spans="1:20" s="4" customFormat="1" ht="32.25" customHeight="1">
+    <row r="50" spans="1:20" s="4" customFormat="1" ht="34.5" customHeight="1">
       <c r="A50" s="8"/>
       <c r="B50" s="19">
         <v>46573</v>
@@ -5208,24 +8060,24 @@
       <c r="H50" s="44">
         <v>0.5625</v>
       </c>
-      <c r="I50" s="111">
+      <c r="I50" s="67">
         <f t="shared" si="0"/>
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J50" s="20" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K50" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L50" s="20" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="M50" s="43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N50" s="37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
@@ -5234,16 +8086,16 @@
       <c r="S50" s="8"/>
       <c r="T50" s="8"/>
     </row>
-    <row r="51" spans="1:20" s="4" customFormat="1" ht="51.75" customHeight="1">
+    <row r="51" spans="1:20" s="4" customFormat="1" ht="32.25" customHeight="1">
       <c r="A51" s="8"/>
       <c r="B51" s="19">
-        <v>39463</v>
+        <v>46573</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="49" t="s">
-        <v>38</v>
+        <v>20</v>
+      </c>
+      <c r="D51" s="46" t="s">
+        <v>25</v>
       </c>
       <c r="E51" s="53" t="s">
         <v>52</v>
@@ -5252,29 +8104,29 @@
         <v>52</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="H51" s="21">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="I51" s="111">
+        <v>16</v>
+      </c>
+      <c r="H51" s="44">
+        <v>0.5625</v>
+      </c>
+      <c r="I51" s="67">
         <f t="shared" si="0"/>
-        <v>4.45</v>
+        <v>3.7</v>
       </c>
       <c r="J51" s="20" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K51" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="L51" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="M51" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="L51" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M51" s="43" t="s">
+        <v>24</v>
       </c>
       <c r="N51" s="37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
@@ -5306,24 +8158,24 @@
       <c r="H52" s="21">
         <v>0.70833333333333337</v>
       </c>
-      <c r="I52" s="111">
-        <f>(N52*0.5 + N53*0.3 + L54*0.2)</f>
-        <v>3.0999999999999996</v>
+      <c r="I52" s="67">
+        <f t="shared" si="0"/>
+        <v>4.45</v>
       </c>
       <c r="J52" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K52" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="L52" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="M52" s="43" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="L52" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="N52" s="37">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
@@ -5332,47 +8184,47 @@
       <c r="S52" s="8"/>
       <c r="T52" s="8"/>
     </row>
-    <row r="53" spans="1:20" s="4" customFormat="1" ht="51.75" customHeight="1" thickBot="1">
+    <row r="53" spans="1:20" s="4" customFormat="1" ht="51.75" customHeight="1">
       <c r="A53" s="8"/>
-      <c r="B53" s="38">
+      <c r="B53" s="19">
         <v>39463</v>
       </c>
-      <c r="C53" s="39" t="s">
+      <c r="C53" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="50" t="s">
+      <c r="D53" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="E53" s="54" t="s">
+      <c r="E53" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="F53" s="54" t="s">
+      <c r="F53" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="G53" s="39" t="s">
+      <c r="G53" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="H53" s="40">
+      <c r="H53" s="21">
         <v>0.70833333333333337</v>
       </c>
-      <c r="I53" s="111">
-        <f>(N53*0.5 + L54*0.3 + L55*0.2)</f>
-        <v>2.25</v>
-      </c>
-      <c r="J53" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="K53" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="L53" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="M53" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="N53" s="42">
-        <v>4.5</v>
+      <c r="I53" s="67">
+        <f>(N53*0.5 + N54*0.3 + L55*0.2)</f>
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="J53" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K53" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L53" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M53" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="N53" s="37">
+        <v>3.5</v>
       </c>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
@@ -5381,49 +8233,97 @@
       <c r="S53" s="8"/>
       <c r="T53" s="8"/>
     </row>
-    <row r="54" spans="1:20" s="4" customFormat="1" ht="18" thickTop="1">
+    <row r="54" spans="1:20" s="4" customFormat="1" ht="51.75" customHeight="1" thickBot="1">
       <c r="A54" s="8"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
+      <c r="B54" s="38">
+        <v>39463</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="H54" s="40">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I54" s="67">
+        <f>(N54*0.5 + L55*0.3 + L56*0.2)</f>
+        <v>2.25</v>
+      </c>
+      <c r="J54" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="K54" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="L54" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="M54" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="N54" s="42">
+        <v>4.5</v>
+      </c>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
-    </row>
-    <row r="55" spans="1:20" s="4" customFormat="1" ht="44.25" customHeight="1">
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+    </row>
+    <row r="55" spans="1:20" s="4" customFormat="1" ht="18" thickTop="1">
       <c r="A55" s="8"/>
-      <c r="B55" s="104" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" s="105"/>
-      <c r="D55" s="105"/>
-      <c r="E55" s="105"/>
-      <c r="F55" s="105"/>
-      <c r="G55" s="105"/>
-      <c r="H55" s="105"/>
-      <c r="I55" s="105"/>
-      <c r="J55" s="105"/>
-      <c r="K55" s="105"/>
-      <c r="L55" s="105"/>
-      <c r="M55" s="105"/>
-      <c r="N55" s="105"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
       <c r="O55" s="8"/>
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
     </row>
-    <row r="56" spans="1:20" s="4" customFormat="1"/>
+    <row r="56" spans="1:20" s="4" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A56" s="8"/>
+      <c r="B56" s="143" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="143"/>
+      <c r="D56" s="143"/>
+      <c r="E56" s="143"/>
+      <c r="F56" s="143"/>
+      <c r="G56" s="143"/>
+      <c r="H56" s="143"/>
+      <c r="I56" s="143"/>
+      <c r="J56" s="143"/>
+      <c r="K56" s="143"/>
+      <c r="L56" s="143"/>
+      <c r="M56" s="143"/>
+      <c r="N56" s="143"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+    </row>
     <row r="57" spans="1:20" s="4" customFormat="1"/>
     <row r="58" spans="1:20" s="4" customFormat="1"/>
     <row r="59" spans="1:20" s="4" customFormat="1"/>
@@ -5432,133 +8332,943 @@
     <row r="62" spans="1:20" s="4" customFormat="1"/>
     <row r="63" spans="1:20" s="4" customFormat="1"/>
     <row r="64" spans="1:20" s="4" customFormat="1"/>
-    <row r="65" spans="2:10" s="4" customFormat="1"/>
-    <row r="66" spans="2:10" s="4" customFormat="1"/>
-    <row r="67" spans="2:10" s="17" customFormat="1" ht="17.399999999999999">
-      <c r="B67" s="17" t="s">
+    <row r="65" spans="2:19" s="4" customFormat="1"/>
+    <row r="66" spans="2:19" s="4" customFormat="1"/>
+    <row r="67" spans="2:19" s="4" customFormat="1"/>
+    <row r="68" spans="2:19" s="17" customFormat="1" ht="17.399999999999999">
+      <c r="B68" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="2:10" s="4" customFormat="1" ht="47.25" customHeight="1">
-      <c r="B68" s="18" t="s">
+    <row r="69" spans="2:19" s="4" customFormat="1" ht="47.25" customHeight="1">
+      <c r="B69" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="67" t="s">
+      <c r="C69" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="D68" s="68"/>
-      <c r="E68" s="68"/>
-      <c r="F68" s="68"/>
-      <c r="G68" s="68"/>
-      <c r="H68" s="68"/>
-      <c r="I68" s="68"/>
-      <c r="J68" s="68"/>
-    </row>
-    <row r="69" spans="2:10" ht="103.5" customHeight="1">
-      <c r="B69" s="18" t="s">
+      <c r="D69" s="107"/>
+      <c r="E69" s="107"/>
+      <c r="F69" s="107"/>
+      <c r="G69" s="107"/>
+      <c r="H69" s="107"/>
+      <c r="I69" s="107"/>
+      <c r="J69" s="107"/>
+    </row>
+    <row r="70" spans="2:19" ht="103.5" customHeight="1">
+      <c r="B70" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="69" t="s">
+      <c r="C70" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="D69" s="68"/>
-      <c r="E69" s="68"/>
-      <c r="F69" s="68"/>
-      <c r="G69" s="68"/>
-      <c r="H69" s="68"/>
-      <c r="I69" s="68"/>
-      <c r="J69" s="68"/>
-    </row>
-    <row r="70" spans="2:10" ht="48.75" customHeight="1">
-      <c r="B70" s="18" t="s">
+      <c r="D70" s="107"/>
+      <c r="E70" s="107"/>
+      <c r="F70" s="107"/>
+      <c r="G70" s="107"/>
+      <c r="H70" s="107"/>
+      <c r="I70" s="107"/>
+      <c r="J70" s="107"/>
+    </row>
+    <row r="71" spans="2:19" ht="48.75" customHeight="1">
+      <c r="B71" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="67" t="s">
+      <c r="C71" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="D70" s="68"/>
-      <c r="E70" s="68"/>
-      <c r="F70" s="68"/>
-      <c r="G70" s="68"/>
-      <c r="H70" s="68"/>
-      <c r="I70" s="68"/>
-      <c r="J70" s="68"/>
-    </row>
-    <row r="71" spans="2:10" ht="45.75" customHeight="1">
-      <c r="B71" s="18" t="s">
+      <c r="D71" s="107"/>
+      <c r="E71" s="107"/>
+      <c r="F71" s="107"/>
+      <c r="G71" s="107"/>
+      <c r="H71" s="107"/>
+      <c r="I71" s="107"/>
+      <c r="J71" s="107"/>
+    </row>
+    <row r="72" spans="2:19" ht="45.75" customHeight="1">
+      <c r="B72" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="69" t="s">
+      <c r="C72" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="D71" s="68"/>
-      <c r="E71" s="68"/>
-      <c r="F71" s="68"/>
-      <c r="G71" s="68"/>
-      <c r="H71" s="68"/>
-      <c r="I71" s="68"/>
-      <c r="J71" s="68"/>
-    </row>
-    <row r="72" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B72" s="18"/>
-      <c r="C72" s="69"/>
-      <c r="D72" s="68"/>
-      <c r="E72" s="68"/>
-      <c r="F72" s="68"/>
-      <c r="G72" s="68"/>
-      <c r="H72" s="68"/>
-      <c r="I72" s="68"/>
-      <c r="J72" s="68"/>
-    </row>
-    <row r="73" spans="2:10" ht="44.25" customHeight="1">
+      <c r="D72" s="107"/>
+      <c r="E72" s="107"/>
+      <c r="F72" s="107"/>
+      <c r="G72" s="107"/>
+      <c r="H72" s="107"/>
+      <c r="I72" s="107"/>
+      <c r="J72" s="107"/>
+    </row>
+    <row r="73" spans="2:19" ht="30.75" customHeight="1">
       <c r="B73" s="18"/>
-      <c r="C73" s="69"/>
-      <c r="D73" s="68"/>
-      <c r="E73" s="68"/>
-      <c r="F73" s="68"/>
-      <c r="G73" s="68"/>
-      <c r="H73" s="68"/>
-      <c r="I73" s="68"/>
-      <c r="J73" s="68"/>
-    </row>
-    <row r="74" spans="2:10">
-      <c r="B74">
-        <v>0</v>
+      <c r="C73" s="108"/>
+      <c r="D73" s="107"/>
+      <c r="E73" s="107"/>
+      <c r="F73" s="107"/>
+      <c r="G73" s="107"/>
+      <c r="H73" s="107"/>
+      <c r="I73" s="107"/>
+      <c r="J73" s="107"/>
+    </row>
+    <row r="74" spans="2:19" ht="44.25" customHeight="1">
+      <c r="B74" s="18"/>
+      <c r="C74" s="108"/>
+      <c r="D74" s="107"/>
+      <c r="E74" s="107"/>
+      <c r="F74" s="107"/>
+      <c r="G74" s="107"/>
+      <c r="H74" s="107"/>
+      <c r="I74" s="107"/>
+      <c r="J74" s="107"/>
+    </row>
+    <row r="77" spans="2:19" ht="14.4" thickBot="1"/>
+    <row r="78" spans="2:19" ht="22.2" thickTop="1" thickBot="1">
+      <c r="C78" s="178" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" s="179"/>
+      <c r="E78" s="179"/>
+      <c r="F78" s="179"/>
+      <c r="G78" s="179"/>
+      <c r="H78" s="179"/>
+      <c r="I78" s="179"/>
+      <c r="J78" s="179"/>
+      <c r="K78" s="179"/>
+      <c r="L78" s="179"/>
+      <c r="M78" s="179"/>
+      <c r="N78" s="179"/>
+      <c r="O78" s="179"/>
+      <c r="P78" s="179"/>
+      <c r="Q78" s="179"/>
+      <c r="R78" s="180"/>
+      <c r="S78" s="181"/>
+    </row>
+    <row r="79" spans="2:19" ht="18" thickTop="1">
+      <c r="C79" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="F79" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="G79" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="H79" s="182" t="s">
+        <v>104</v>
+      </c>
+      <c r="I79" s="182"/>
+      <c r="J79" s="182"/>
+      <c r="K79" s="182"/>
+      <c r="L79" s="182"/>
+      <c r="M79" s="182"/>
+      <c r="N79" s="182"/>
+      <c r="O79" s="182"/>
+      <c r="P79" s="182"/>
+      <c r="Q79" s="182"/>
+      <c r="R79" s="182"/>
+      <c r="S79" s="183"/>
+    </row>
+    <row r="80" spans="2:19" ht="36">
+      <c r="C80" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="E80" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="F80" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="G80" s="76"/>
+      <c r="H80" s="184"/>
+      <c r="I80" s="185"/>
+      <c r="J80" s="185"/>
+      <c r="K80" s="185"/>
+      <c r="L80" s="185"/>
+      <c r="M80" s="185"/>
+      <c r="N80" s="185"/>
+      <c r="O80" s="185"/>
+      <c r="P80" s="185"/>
+      <c r="Q80" s="185"/>
+      <c r="R80" s="185"/>
+      <c r="S80" s="186"/>
+    </row>
+    <row r="81" spans="3:19" ht="18">
+      <c r="C81" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="E81" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="F81" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="G81" s="77"/>
+      <c r="H81" s="187"/>
+      <c r="I81" s="185"/>
+      <c r="J81" s="185"/>
+      <c r="K81" s="185"/>
+      <c r="L81" s="185"/>
+      <c r="M81" s="185"/>
+      <c r="N81" s="185"/>
+      <c r="O81" s="185"/>
+      <c r="P81" s="185"/>
+      <c r="Q81" s="185"/>
+      <c r="R81" s="185"/>
+      <c r="S81" s="186"/>
+    </row>
+    <row r="82" spans="3:19" ht="36">
+      <c r="C82" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="D82" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="E82" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="F82" s="89" t="s">
+        <v>127</v>
+      </c>
+      <c r="G82" s="78"/>
+      <c r="H82" s="188"/>
+      <c r="I82" s="185"/>
+      <c r="J82" s="185"/>
+      <c r="K82" s="185"/>
+      <c r="L82" s="185"/>
+      <c r="M82" s="185"/>
+      <c r="N82" s="185"/>
+      <c r="O82" s="185"/>
+      <c r="P82" s="185"/>
+      <c r="Q82" s="185"/>
+      <c r="R82" s="185"/>
+      <c r="S82" s="186"/>
+    </row>
+    <row r="83" spans="3:19" ht="36">
+      <c r="C83" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D83" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="E83" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="F83" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="G83" s="79"/>
+      <c r="H83" s="189"/>
+      <c r="I83" s="185"/>
+      <c r="J83" s="185"/>
+      <c r="K83" s="185"/>
+      <c r="L83" s="185"/>
+      <c r="M83" s="185"/>
+      <c r="N83" s="185"/>
+      <c r="O83" s="185"/>
+      <c r="P83" s="185"/>
+      <c r="Q83" s="185"/>
+      <c r="R83" s="185"/>
+      <c r="S83" s="186"/>
+    </row>
+    <row r="84" spans="3:19" ht="36">
+      <c r="C84" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="E84" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="F84" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="G84" s="78"/>
+      <c r="H84" s="188"/>
+      <c r="I84" s="185"/>
+      <c r="J84" s="185"/>
+      <c r="K84" s="185"/>
+      <c r="L84" s="185"/>
+      <c r="M84" s="185"/>
+      <c r="N84" s="185"/>
+      <c r="O84" s="185"/>
+      <c r="P84" s="185"/>
+      <c r="Q84" s="185"/>
+      <c r="R84" s="185"/>
+      <c r="S84" s="186"/>
+    </row>
+    <row r="85" spans="3:19" ht="18.600000000000001" thickBot="1">
+      <c r="C85" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="E85" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="F85" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="G85" s="81"/>
+      <c r="H85" s="147" t="s">
+        <v>134</v>
+      </c>
+      <c r="I85" s="148"/>
+      <c r="J85" s="148"/>
+      <c r="K85" s="148"/>
+      <c r="L85" s="148"/>
+      <c r="M85" s="148"/>
+      <c r="N85" s="148"/>
+      <c r="O85" s="148"/>
+      <c r="P85" s="148"/>
+      <c r="Q85" s="148"/>
+      <c r="R85" s="148"/>
+      <c r="S85" s="149"/>
+    </row>
+    <row r="86" spans="3:19" ht="37.200000000000003" thickTop="1" thickBot="1">
+      <c r="C86" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="D86" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="E86" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="F86" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="G86" s="74"/>
+      <c r="H86" s="147" t="s">
+        <v>135</v>
+      </c>
+      <c r="I86" s="148"/>
+      <c r="J86" s="148"/>
+      <c r="K86" s="148"/>
+      <c r="L86" s="148"/>
+      <c r="M86" s="148"/>
+      <c r="N86" s="148"/>
+      <c r="O86" s="148"/>
+      <c r="P86" s="148"/>
+      <c r="Q86" s="148"/>
+      <c r="R86" s="148"/>
+      <c r="S86" s="149"/>
+    </row>
+    <row r="87" spans="3:19" ht="19.2" thickTop="1" thickBot="1">
+      <c r="C87" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="D87" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="E87" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="F87" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="G87" s="74"/>
+      <c r="H87" s="147"/>
+      <c r="I87" s="148"/>
+      <c r="J87" s="148"/>
+      <c r="K87" s="148"/>
+      <c r="L87" s="148"/>
+      <c r="M87" s="148"/>
+      <c r="N87" s="148"/>
+      <c r="O87" s="148"/>
+      <c r="P87" s="148"/>
+      <c r="Q87" s="148"/>
+      <c r="R87" s="148"/>
+      <c r="S87" s="149"/>
+    </row>
+    <row r="88" spans="3:19" ht="37.200000000000003" thickTop="1" thickBot="1">
+      <c r="C88" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="D88" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="E88" s="90" t="s">
+        <v>123</v>
+      </c>
+      <c r="F88" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="G88" s="74"/>
+      <c r="H88" s="147"/>
+      <c r="I88" s="148"/>
+      <c r="J88" s="148"/>
+      <c r="K88" s="148"/>
+      <c r="L88" s="148"/>
+      <c r="M88" s="148"/>
+      <c r="N88" s="148"/>
+      <c r="O88" s="148"/>
+      <c r="P88" s="148"/>
+      <c r="Q88" s="148"/>
+      <c r="R88" s="148"/>
+      <c r="S88" s="149"/>
+    </row>
+    <row r="89" spans="3:19" ht="37.200000000000003" thickTop="1" thickBot="1">
+      <c r="C89" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="D89" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="E89" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="F89" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="G89" s="74"/>
+      <c r="H89" s="147"/>
+      <c r="I89" s="148"/>
+      <c r="J89" s="148"/>
+      <c r="K89" s="148"/>
+      <c r="L89" s="148"/>
+      <c r="M89" s="148"/>
+      <c r="N89" s="148"/>
+      <c r="O89" s="148"/>
+      <c r="P89" s="148"/>
+      <c r="Q89" s="148"/>
+      <c r="R89" s="148"/>
+      <c r="S89" s="149"/>
+    </row>
+    <row r="90" spans="3:19" ht="19.2" thickTop="1" thickBot="1">
+      <c r="C90" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="E90" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="F90" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="G90" s="74"/>
+      <c r="H90" s="147"/>
+      <c r="I90" s="148"/>
+      <c r="J90" s="148"/>
+      <c r="K90" s="148"/>
+      <c r="L90" s="148"/>
+      <c r="M90" s="148"/>
+      <c r="N90" s="148"/>
+      <c r="O90" s="148"/>
+      <c r="P90" s="148"/>
+      <c r="Q90" s="148"/>
+      <c r="R90" s="148"/>
+      <c r="S90" s="149"/>
+    </row>
+    <row r="91" spans="3:19" ht="19.2" thickTop="1" thickBot="1">
+      <c r="C91" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="D91" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="E91" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="F91" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="G91" s="74"/>
+      <c r="H91" s="147"/>
+      <c r="I91" s="148"/>
+      <c r="J91" s="148"/>
+      <c r="K91" s="148"/>
+      <c r="L91" s="148"/>
+      <c r="M91" s="148"/>
+      <c r="N91" s="148"/>
+      <c r="O91" s="148"/>
+      <c r="P91" s="148"/>
+      <c r="Q91" s="148"/>
+      <c r="R91" s="148"/>
+      <c r="S91" s="149"/>
+    </row>
+    <row r="92" spans="3:19" ht="37.200000000000003" thickTop="1" thickBot="1">
+      <c r="C92" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="D92" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="E92" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="F92" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G92" s="74"/>
+      <c r="H92" s="147"/>
+      <c r="I92" s="148"/>
+      <c r="J92" s="148"/>
+      <c r="K92" s="148"/>
+      <c r="L92" s="148"/>
+      <c r="M92" s="148"/>
+      <c r="N92" s="148"/>
+      <c r="O92" s="148"/>
+      <c r="P92" s="148"/>
+      <c r="Q92" s="148"/>
+      <c r="R92" s="148"/>
+      <c r="S92" s="149"/>
+    </row>
+    <row r="93" spans="3:19" ht="14.4" thickTop="1"/>
+    <row r="96" spans="3:19" ht="21">
+      <c r="C96" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="E96" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="G96" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="I96" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="J96" s="94" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" ht="21">
+      <c r="C97" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="E97" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="G97" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="I97" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="J97" s="95"/>
+    </row>
+    <row r="98" spans="2:10" ht="21">
+      <c r="C98" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="E98" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="G98" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="I98" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="J98" s="95"/>
+    </row>
+    <row r="99" spans="2:10" ht="21">
+      <c r="C99" s="85"/>
+      <c r="E99" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="G99" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="I99" s="84"/>
+    </row>
+    <row r="100" spans="2:10" ht="21">
+      <c r="C100" s="85"/>
+      <c r="G100" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="I100" s="84"/>
+    </row>
+    <row r="101" spans="2:10" ht="21">
+      <c r="C101" s="85"/>
+      <c r="G101" s="91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" ht="21">
+      <c r="C102" s="85"/>
+      <c r="G102" s="91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" ht="21">
+      <c r="C103" s="85"/>
+    </row>
+    <row r="104" spans="2:10" ht="21">
+      <c r="C104" s="85"/>
+      <c r="I104" s="84"/>
+    </row>
+    <row r="105" spans="2:10" ht="21">
+      <c r="C105" s="85"/>
+      <c r="I105" s="84"/>
+    </row>
+    <row r="106" spans="2:10" ht="21">
+      <c r="C106" s="85"/>
+      <c r="I106" s="84"/>
+    </row>
+    <row r="107" spans="2:10" ht="21">
+      <c r="C107" s="85"/>
+    </row>
+    <row r="108" spans="2:10" ht="21">
+      <c r="C108" s="85"/>
+    </row>
+    <row r="109" spans="2:10" ht="24.6">
+      <c r="B109" s="153" t="s">
+        <v>142</v>
+      </c>
+      <c r="C109" s="153"/>
+      <c r="D109" s="153"/>
+      <c r="E109" s="153"/>
+      <c r="F109" s="153"/>
+      <c r="G109" s="153"/>
+    </row>
+    <row r="111" spans="2:10" ht="23.4" customHeight="1">
+      <c r="B111" s="150" t="s">
+        <v>136</v>
+      </c>
+      <c r="C111" s="151" t="s">
+        <v>143</v>
+      </c>
+      <c r="D111" s="151"/>
+      <c r="E111" s="151"/>
+      <c r="F111" s="150" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" ht="23.4" customHeight="1">
+      <c r="B112" s="150"/>
+      <c r="C112" s="152" t="s">
+        <v>144</v>
+      </c>
+      <c r="D112" s="152"/>
+      <c r="E112" s="152"/>
+      <c r="F112" s="150"/>
+    </row>
+    <row r="115" spans="2:6" ht="54.6" customHeight="1">
+      <c r="B115" s="150" t="s">
+        <v>137</v>
+      </c>
+      <c r="C115" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="D115" s="154"/>
+      <c r="E115" s="154"/>
+      <c r="F115" s="150" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" ht="20.399999999999999" customHeight="1">
+      <c r="B116" s="150"/>
+      <c r="C116" s="155" t="s">
+        <v>146</v>
+      </c>
+      <c r="D116" s="155"/>
+      <c r="E116" s="155"/>
+      <c r="F116" s="150"/>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="E117" s="96"/>
+    </row>
+    <row r="118" spans="2:6" ht="20.399999999999999">
+      <c r="B118" s="150" t="s">
+        <v>148</v>
+      </c>
+      <c r="C118" s="151" t="s">
+        <v>147</v>
+      </c>
+      <c r="D118" s="151"/>
+      <c r="E118" s="151"/>
+      <c r="F118" s="150" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" ht="20.399999999999999">
+      <c r="B119" s="150"/>
+      <c r="C119" s="152" t="s">
+        <v>149</v>
+      </c>
+      <c r="D119" s="152"/>
+      <c r="E119" s="152"/>
+      <c r="F119" s="150"/>
+    </row>
+    <row r="147" spans="1:5" s="98" customFormat="1" ht="24.6">
+      <c r="A147" s="175" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" s="175"/>
+      <c r="C147" s="175"/>
+      <c r="D147" s="175"/>
+      <c r="E147" s="175"/>
+    </row>
+    <row r="171" spans="1:5" s="97" customFormat="1" ht="20.399999999999999">
+      <c r="A171" s="176" t="s">
+        <v>151</v>
+      </c>
+      <c r="B171" s="176"/>
+      <c r="C171" s="176"/>
+      <c r="D171" s="176"/>
+      <c r="E171" s="176"/>
+    </row>
+    <row r="173" spans="1:5" s="99" customFormat="1" ht="20.399999999999999">
+      <c r="B173" s="100" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="17.399999999999999">
+      <c r="B175" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="C175" s="102" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="17.399999999999999">
+      <c r="B176" s="101" t="s">
+        <v>155</v>
+      </c>
+      <c r="C176" s="177" t="s">
+        <v>156</v>
+      </c>
+      <c r="D176" s="177"/>
+      <c r="E176" s="177"/>
+    </row>
+    <row r="177" spans="2:5" ht="17.399999999999999">
+      <c r="B177" s="101"/>
+      <c r="C177" s="177" t="s">
+        <v>157</v>
+      </c>
+      <c r="D177" s="177"/>
+      <c r="E177" s="177"/>
+    </row>
+    <row r="178" spans="2:5" ht="17.399999999999999">
+      <c r="B178" s="101" t="s">
+        <v>158</v>
+      </c>
+      <c r="C178" s="102" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" ht="17.399999999999999">
+      <c r="B179" s="101"/>
+    </row>
+    <row r="180" spans="2:5" ht="17.399999999999999">
+      <c r="B180" s="101"/>
+    </row>
+    <row r="181" spans="2:5" ht="17.399999999999999">
+      <c r="B181" s="101"/>
+    </row>
+    <row r="182" spans="2:5" ht="17.399999999999999">
+      <c r="B182" s="101"/>
+    </row>
+    <row r="183" spans="2:5" ht="17.399999999999999">
+      <c r="B183" s="101"/>
+    </row>
+    <row r="184" spans="2:5" ht="17.399999999999999">
+      <c r="B184" s="101"/>
+    </row>
+    <row r="185" spans="2:5" ht="17.399999999999999">
+      <c r="B185" s="101"/>
+    </row>
+    <row r="198" spans="1:10" ht="12.6" customHeight="1"/>
+    <row r="199" spans="1:10" s="103" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A199" s="192" t="s">
+        <v>159</v>
+      </c>
+      <c r="B199" s="192"/>
+      <c r="C199" s="192"/>
+      <c r="D199" s="192"/>
+    </row>
+    <row r="201" spans="1:10" ht="51" customHeight="1">
+      <c r="B201" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" s="193" t="s">
+        <v>160</v>
+      </c>
+      <c r="D201" s="191"/>
+      <c r="E201" s="191"/>
+      <c r="F201" s="191"/>
+      <c r="G201" s="191"/>
+      <c r="H201" s="191"/>
+      <c r="I201" s="191"/>
+      <c r="J201" s="191"/>
+    </row>
+    <row r="202" spans="1:10" ht="157.19999999999999" customHeight="1">
+      <c r="B202" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" s="190" t="s">
+        <v>161</v>
+      </c>
+      <c r="D202" s="191"/>
+      <c r="E202" s="191"/>
+      <c r="F202" s="191"/>
+      <c r="G202" s="191"/>
+      <c r="H202" s="191"/>
+      <c r="I202" s="191"/>
+      <c r="J202" s="191"/>
+    </row>
+    <row r="203" spans="1:10" ht="54.6" customHeight="1">
+      <c r="B203" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" s="193" t="s">
+        <v>167</v>
+      </c>
+      <c r="D203" s="191"/>
+      <c r="E203" s="191"/>
+      <c r="F203" s="191"/>
+      <c r="G203" s="191"/>
+      <c r="H203" s="191"/>
+      <c r="I203" s="191"/>
+      <c r="J203" s="191"/>
+    </row>
+    <row r="204" spans="1:10" ht="58.8" customHeight="1">
+      <c r="B204" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C204" s="190" t="s">
+        <v>162</v>
+      </c>
+      <c r="D204" s="191"/>
+      <c r="E204" s="191"/>
+      <c r="F204" s="191"/>
+      <c r="G204" s="191"/>
+      <c r="H204" s="191"/>
+      <c r="I204" s="191"/>
+      <c r="J204" s="191"/>
+    </row>
+    <row r="205" spans="1:10" ht="28.2" customHeight="1"/>
+    <row r="206" spans="1:10" ht="20.399999999999999">
+      <c r="C206" s="145" t="s">
+        <v>163</v>
+      </c>
+      <c r="D206" s="145"/>
+      <c r="E206" s="145"/>
+      <c r="F206" s="145"/>
+      <c r="G206" s="145"/>
+      <c r="H206" s="145"/>
+    </row>
+    <row r="207" spans="1:10" ht="20.399999999999999">
+      <c r="C207" s="105" t="s">
+        <v>166</v>
+      </c>
+      <c r="D207" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="E207" s="105" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="209" spans="3:8" ht="20.399999999999999">
+      <c r="C209" s="146" t="s">
+        <v>168</v>
+      </c>
+      <c r="D209" s="146"/>
+      <c r="E209" s="146"/>
+      <c r="F209" s="146"/>
+      <c r="G209" s="146"/>
+      <c r="H209" s="146"/>
+    </row>
+    <row r="210" spans="3:8" ht="20.399999999999999">
+      <c r="C210" s="105" t="s">
+        <v>166</v>
+      </c>
+      <c r="D210" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="E210" s="105" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="C71:J71"/>
+  <mergeCells count="70">
+    <mergeCell ref="C204:J204"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="C201:J201"/>
+    <mergeCell ref="C202:J202"/>
+    <mergeCell ref="C203:J203"/>
+    <mergeCell ref="A147:E147"/>
+    <mergeCell ref="A171:E171"/>
+    <mergeCell ref="C176:E176"/>
+    <mergeCell ref="C177:E177"/>
     <mergeCell ref="C72:J72"/>
     <mergeCell ref="C73:J73"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="B55:N55"/>
-    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C78:S78"/>
+    <mergeCell ref="H79:S79"/>
+    <mergeCell ref="H80:S80"/>
+    <mergeCell ref="H81:S81"/>
+    <mergeCell ref="H82:S82"/>
+    <mergeCell ref="H83:S83"/>
+    <mergeCell ref="H84:S84"/>
+    <mergeCell ref="H85:S85"/>
+    <mergeCell ref="H86:S86"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="B56:N56"/>
     <mergeCell ref="C69:J69"/>
     <mergeCell ref="C70:J70"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H87:S87"/>
+    <mergeCell ref="H88:S88"/>
+    <mergeCell ref="H89:S89"/>
+    <mergeCell ref="H90:S90"/>
+    <mergeCell ref="H91:S91"/>
+    <mergeCell ref="C206:H206"/>
+    <mergeCell ref="C209:H209"/>
+    <mergeCell ref="H92:S92"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="C116:E116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
